--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\OneDrive\문서\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842E1A1D-4709-431C-B44F-0F5E08A1EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B62BEC-4A91-4FC2-BB26-78C63D229458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="11" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205010" sheetId="20" r:id="rId1"/>
@@ -22,10 +22,18 @@
     <sheet name="205121_success" sheetId="53" r:id="rId7"/>
     <sheet name="205121_fail" sheetId="73" r:id="rId8"/>
     <sheet name="205130" sheetId="74" r:id="rId9"/>
-    <sheet name="206110" sheetId="75" r:id="rId10"/>
-    <sheet name="206140_choice" sheetId="67" r:id="rId11"/>
-    <sheet name="205120_choice2" sheetId="69" r:id="rId12"/>
-    <sheet name="206140_choice1" sheetId="68" r:id="rId13"/>
+    <sheet name="205130_1" sheetId="78" r:id="rId10"/>
+    <sheet name="205130_2" sheetId="79" r:id="rId11"/>
+    <sheet name="206110" sheetId="75" r:id="rId12"/>
+    <sheet name="206120" sheetId="80" r:id="rId13"/>
+    <sheet name="206131" sheetId="81" r:id="rId14"/>
+    <sheet name="206132" sheetId="82" r:id="rId15"/>
+    <sheet name="206140" sheetId="83" r:id="rId16"/>
+    <sheet name="206140_choice" sheetId="67" r:id="rId17"/>
+    <sheet name="206140_choice1" sheetId="68" r:id="rId18"/>
+    <sheet name="206140_1" sheetId="84" r:id="rId19"/>
+    <sheet name="206140_choice2" sheetId="69" r:id="rId20"/>
+    <sheet name="206140_2" sheetId="85" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,6 +93,72 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F7459D23-A533-4859-B3A0-9C39ED304643}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BE6B53E-F4BD-4906-BF41-CD3E6D458D63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{34C737A6-DED6-404B-AE59-94E72931C88D}">
       <text>
         <r>
@@ -112,7 +186,139 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C5C9D4B-3342-45BE-9D8E-0E93FFF5F0F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{604C98B0-87E5-4FA4-9718-FDA9DD73DDF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B6E6522-9FC5-498B-BDD3-6D181F18469A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F088B9C0-F3CA-42EF-AF1F-8E415922DBA6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -290,6 +496,72 @@
           </rPr>
           <t xml:space="preserve">자존감
 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2C2746E5-5B02-47B7-8886-097125E9EDEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1DF8AD69-4CDE-4E36-8A72-A429206044E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -562,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="210">
   <si>
     <t>이름</t>
   </si>
@@ -690,26 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep2/204130_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너도 그렇게 살고 싶었던 게 아니었잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 선택에는 책임을 질 수 밖에 없어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,14 +970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep2/204130_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>205010</t>
   </si>
   <si>
@@ -756,9 +1000,6 @@
     <t>206140_choice</t>
   </si>
   <si>
-    <t>205120_choice2</t>
-  </si>
-  <si>
     <t>205121</t>
   </si>
   <si>
@@ -791,74 +1032,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오! 생각보다 빨리 나왔네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝나자 마자 바로 나왔지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디 가고 싶은 데 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나야 뭐 여기 사람이 아니라 뭐가 있는 지 모르니까 너가 가자고 하는데면 다 좋아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>으으음…그러면 어딜 갈까나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그러면 우리가 처음 만났던 곳으로 가볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거기가면 이쁜 데가 많거든!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음 확실히 거길 제대로 구경해보진 못한 거 같긴 하다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다행이다! 그럼 한번 가보자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오오… 확실히 광장이라서 사람이 많긴 하다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그만큼 볼 거리도 많을 거야! 돌아다녀 보자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 맞다, 이 분수 말이야, 저 맨 위에 동전을 던져 넣으면 소원 이뤄진대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오오, 그렇다면 꼭 해봐야지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무슨 소원이라도 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>으음…딱히…?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일단 넣고나서 생각해보지 뭐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하핫, 그래그래. 은근 저기 넣기 어렵대!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보자… 지금 동전이 5개 있으니까, 5번 안에 꼭 넣는다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,10 +1060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기왕 넣은 김에 제대로 소원 빌어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>으으으음…...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,14 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빌었어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐로 빌었어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>음…그건…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,22 +1080,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하긴 소원은 알려주면 안 이뤄진다더라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 소원 알려달라고 한거야? 인성??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아아니…고의로 그런 건 아니고..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하하하, 농담이야 농담! 짜식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>으아아악! 왜 안들어가!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,43 +1096,556 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라우야 저기 원래 넣기 어렵대.. 진정해 진정..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>넣고 싶었는데…아쉽다…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무슨 소원이었길래 그래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>음…그냥 뭐…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여기서 만난 너랑 다른 친구랑 더 친해져서 나중에 우리 원마을에 놀러올 수 있었으면 좋겠다는 거?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야~ 그거야 당연히 소원까지 아니어도 이룰 수 있는 거잖아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런가? 그러면 너무 좋지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오히려 갔는데 모른 척 하기 없기다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당연히 안 그러지! 놀러오기나해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>205120_2</t>
+  </si>
+  <si>
+    <t>아~재밌었다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 은근 구석진 데에 있어서 그런지 사람도 많지 않고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 그러네 비둘기들 밖에 없네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205130_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 생각보다 빨리 나왔네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝나자 마자 바로 나왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 가고 싶은 데 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저야 뭐 여기 사람이 아니라 뭐가 있는 지 모르니까 오운씨가 가자고 하는데면 다 좋아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 우리가 처음 만났던 곳으로 가볼까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기가면 이쁜 데가 많거든요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음 확실히 거길 제대로 구경해보진 못한 거 같긴 하네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행이다! 그럼 한번 가봐요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오… 확실히 광장이라서 사람이 많긴 하네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그만큼 볼 거리도 많을 거에요! 같이 돌아다녀 봐요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 맞다, 이 분수, 저 맨 위에 동전을 던져 넣으면 소원 이뤄진대요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소원이라도 있어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 넣고나서 생각해보는 거죠 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하핫, 그래요. 은근 저기 넣기 어렵대요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기왕 넣은 김에 제대로 소원 빌어봐요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌었다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐로 빌었어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴 소원은 알려주면 안 이뤄진다더라구요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 소원 알려달라고 한거에요? 인성??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하, 농담이야 농담!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우씨...저기 원래 넣기 어렵대요.. 진정해 진정..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소원이었길래 그래요..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 만난 오운씨랑 다른 친구랑 더 친해져서 나중에 우리 원마을에 놀러올 수 있었으면 좋겠다는 거?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야~ 그거야 당연히 소원까지 아니어도 이룰 수 있는 거잖아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런가? 그러면 너무 좋죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오히려 갔는데 모른 척 하기 없어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연히 안 그러지! 놀러오기나해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재밌었다니 다행이네요 하하.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 재밌게 논거 같아요! 그리고 여기 경치 너무 좋다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치! 여기가 풍경이 진짜 좋아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비둘기들한테 밥 줘볼까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘은 하하호호 거리며 즐겁게 이야기를 나누고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 근데 우리 둘다 대학생이면 또래인거 같은데 말 놓을까…요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…그래도 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼요! 그럼 같이 말 놔…요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아앗…네….아, 아니.. 응…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하핳 어색한가 봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무래도 계속 존댓말 쓰다보니까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하핫! 말 편하게 해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그…그래..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘하네! 우리 이제 서로 말 편하게 하는 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 알겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 그때 처음 본날 이후로 뭐하고 지냈어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나야 뭐…평소처럼 학교다니고 공부하고 동아리 활동하고 그랬지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…모범생이구나…나도 과제에 치여 살기는 했지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 보니 서로 학과를 모르네? 학과가 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 나는 기계공학과! 기계를 만지는 게 좋아서 왔는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막상 와보니까 수학이랑 역학만 주구장창하고 있어…</t>
+  </si>
+  <si>
+    <t>아 그치...생각했던 거랑 다른 경우가 많긴 하지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 오운 너는? 뭔가 문과일 거 같아…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 티나나? 나는 경영학과인데 사회학과랑 복수전공하고 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…경영학과는 아무래도 아버지 사업때문에 들어간 거 같고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하…맞아…물론 적성에 안맞지는 않지만 사회학과 수업이 더 재밌긴 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 복수전공할 정신도 없는데 대단하다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야~너도 대단하지! 공대가 빡세다고 하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어휴..몰라…다들 어떻게 휴학없이 다니는 지 모르겠어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 지금은 휴학한 상태인거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치? 그러니까 이렇게 여행도 온거고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부럽다…나도 휴학하고 싶은데 막상 휴학하고 뭐 할지 모르겠기도 하고…아버지도 반대하기도 하고..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 아직 젊은데 놀 때 놀아야지! 뭐 하고 싶은거 있으면 그거 하면 되고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음..만약 한다면 동아리 활동을 열심히 하지 않을까 싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 맞아, 동아리 활동은 잘되가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 뭐…요새는 홍보 준비하고 있었지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…신입부원 모집하려고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응. 인권동아리가 있는지도 모르는 경우가 많으니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴…나도 학교 다닐 때 잘 몰랐던 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나름 우리 동아리 재밌는데 겉으로 만 볼 때는 지루해 보이는 거 같아서 홍보를 할 필요성을 느껴서 이번에 홍보하는 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보 포스터 붙이는 거 하려나??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 맞아! 내일 학교 게시판에 홍보 포스터 붙이기로 했어 동아리 애들이랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…나 차피 할 거 없는데 너네 학교 구경할 겸 도와줘도 돼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇? 나야 좋지! 아 그리고 얼마 전에 동아리 애들한테 너 얘기하니까 다들 보고 싶다 하더라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제 내 얘길 했대! 그렇다면 꼭 가야 겠네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205130_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비둘기들 잘 먹네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들이 별로 안와서 그런지 다들 여기로 몰려드는 것 같네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 괜찮아…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 있으면 상관없는데 좀 많으니까 무섭네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…얘네 내쫒을까..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 아냐…얘네도 배고플텐데 뭐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 정말 착하구나. 그치 얘네가 해치진 않을꺼야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 어머니가 너 동아리 활동하는 건 아셔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼~내가 회장이라고 하니까 기뻐하셨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오올…회장님~멋져요~ 유후~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 회장이라고 별 다를 건 없어~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겸손까지 갖추신 최고의 회장님, 호!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잇! 그만해~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크, 알겠어 알겠어~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니는 네모마을 가셔서 뭐하고 계셔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니도 원래 사업가신데 네모마을 가고 나서는 자선사업 같은거 하시고 계셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…멋지다…주로 누굴 대상으로 하셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…내가 알기론 네모마을로 도망친 성매매 여성들을 돕는다고 하신 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉! 대단한 일 하시네….멋지시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까.. 쉬운 일이 아닐 텐데 말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까… 반발하는 사람도 분명히 있을 거 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 그리고 말 나온 김에 하는 말인데, 성매매가 아니라 성착취라고 써야할 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 몰랐어… 미안… 나는 그렇게 알고 있었거든…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제부터 알면 되니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 나도 어머니처럼 사람들을 돕는 사업을 하고 싶어. 아마 아버지랑 크게 싸울 것 같지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 하고 싶은 걸 해야지! 남에게 떠밀려서 해봤자 후회밖에 안남을테니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아..근데 아버지와 맞서야 된다는 건 좀 많이 두려워…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…아버지가 많이 엄하신가 보구나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…응…어렸을 때부터 엄했거든…성인이 된 이후에도 내가 하는 것들을 다 맘에 안들어 하시는 것 같고 말이지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 힘들겠다…그래도 난 너가 이겨낼 수 있다고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋게 봐줘서 고마워…그럴 수 있으면 좋을 텐데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 아버지가 맘에 안들어 하신다 해도 꿋꿋히 하고 있기도 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 진심으로 이겨낼 수 있을거라고 생각한거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우…고마워 진심으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 꼭 나올거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지! 내일도 학교 앞으로 갈께!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응! 애들이 다 반가워 할거야! 나도 그렇고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 앞에 오운이 서있다. 라우를 기다리는 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우 언제즈음 오려나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 떄 멀리서 라우가 다가온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운! 나왔어! 많이 안 늦었지??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응 나도 방금 나왔어! 오느라 고생많았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐아냐! 그렇게 멀지도 않고 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저번엔 학교 앞만 봤는데 이번엔 학교 안으로 들어가볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 동아리방으로 가자! 애들이 너 기다리고 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206120</t>
+  </si>
+  <si>
+    <t>206110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜로. 지금도 너가 하고 싶은 걸 하려고 동아리 까지 직접 먼저 만들었잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206131</t>
+  </si>
+  <si>
+    <t>206132</t>
+  </si>
+  <si>
+    <t>206140_choice2</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206140_1</t>
+  </si>
+  <si>
+    <t>206140_2</t>
   </si>
 </sst>
 </file>
@@ -1378,16 +2052,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1443,7 +2117,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1457,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1471,7 +2145,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1513,23 +2187,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD8D54-30DB-4585-8738-15F3F2DA6B13}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1575,16 +2249,1338 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D026A2-F5F7-4C04-AFAE-2228E10427BD}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD8D54-30DB-4585-8738-15F3F2DA6B13}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1593,157 +3589,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F9"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1753,23 +3731,601 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
-  <dimension ref="A1:D6"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1828,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1851,101 +4407,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
-  <dimension ref="A1:D6"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
+      <c r="A1" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1957,16 +4555,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2013,26 +4611,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2046,35 +4644,35 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2088,49 +4686,49 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2144,21 +4742,263 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2173,19 +5013,19 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2241,21 +5081,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -2272,20 +5112,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4335BB41-966B-4FAE-BB47-FEF80A5C6C0D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2341,10 +5181,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2366,16 +5206,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2431,10 +5271,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2453,19 +5293,19 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2512,16 +5352,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2535,21 +5375,21 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2563,7 +5403,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2577,21 +5417,21 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2605,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2620,19 +5460,19 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2688,21 +5528,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -2716,21 +5556,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2744,7 +5584,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2758,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2772,21 +5612,21 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2800,7 +5640,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2814,35 +5654,35 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2856,21 +5696,21 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2884,7 +5724,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2902,16 +5742,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2967,21 +5807,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -2995,21 +5835,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3023,21 +5863,21 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3051,7 +5891,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3065,21 +5905,21 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3093,21 +5933,21 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3121,7 +5961,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3133,22 +5973,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF5345-25BA-43AD-A496-F3145A242A44}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3194,17 +6034,121 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\OneDrive\문서\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B62BEC-4A91-4FC2-BB26-78C63D229458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45753F6-490B-49C7-9115-CC407ABD1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="11" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="11" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205010" sheetId="20" r:id="rId1"/>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="263">
   <si>
     <t>이름</t>
   </si>
@@ -1646,6 +1646,218 @@
   </si>
   <si>
     <t>206140_2</t>
+  </si>
+  <si>
+    <t>우와! 너네 동아리방 시설 좋다! 깔끔하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 막상 근데 우리 학교 동아리방에서 제일 좁고 안 좋은 편인걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 사립 명문학교 답다는 생각을 하는 라우였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 오운, 너가 저번에 말했던 친구야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 방에 있던 3명의 학생이 있다는 걸 조금 무서워 보이는 학생의 말을 듣고 늦게나마 눈치를 챘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어~라우! 인사해! 다 우리 동아리 친구들이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 원마을에서 온 라우라고 합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…타지인을 볼 기회가 거의 없었는데…반가워요. 저는 리카라고 해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말편하게 해! 난 브린이고 정치외교학과야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 학과도 말해야 되나? 나는 컴공이야. 해킹 쪽으로 전문으로 하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와…저도 공대생이지만 해커라니 멋져요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 공대생이구나? 어디?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 기계공이요! 아직 진로는 모르겠지만요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…다들 내가 여기 있으면 왜 여깄냐고 하는데 너는 그런 말을 안하는 구나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 리카가 비록 수석입학을 했다해도 뭐 너같은 인재가 여기에 왜 있냐라는 말은 하도 해서 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 자기가 원하는 동아리 들어가겠다는 데 그걸로 뭐라하는 사람들이 이상한거죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반가워요. 저는 루인이라고 합니다. 저는 사회학과에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 반가워요! 뭔가 다양한 사람들과 만나게 되서 좋네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 좋은 친구들이야! 그래서 소개해주고 싶었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실없는 말은..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이…리카 좋으면서~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 빈말하는 친구는 아니니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 평소에도 이렇게 자주 동아리 방에 있으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨날은 아니어도 매주 만나긴 하는데 그게 딱 오늘이었지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 오운이랑 같이 동아리 홍보 포스터를 붙이고 다니려고 모였어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하필 오늘 바쁜 날에 만나서 아쉽다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝나고 얘기하면 되지 뭐. 워낙 다들 시간 내기 바빠서말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라고, 가장 바쁘신 분이 말씀하셨네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요! 끝나고도 더 얘기하면 되니까요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우 미안…애들이 되는 시간이 이날 밖에 없어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이 또 뭘 미안해 하고 있어! 너 덕분에 이렇게 라도 볼 수 있어서 좋은 걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~말 진짜 이쁘게 한다! 난 라우 맘에 들어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 다들 성격이 완전 다른데 뭔가 왁자지껄하다는 기분을 느꼈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자자, 일단 사담은 끝나고 해보자고! 오늘 각자 어딜 담당할 지는 알지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 근데 오운 너가 담당한 데가 좀 많던데 괜찮겠어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우랑 같이 가면 되겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…오자마자 부려먹기 위한 계획이셨군여 회장님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥???그런거 아니야 라우! 넌 여기서 기다리고 있어..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이 괜찮아 차피 나 혼자 여기 있어봤자 심심해. 그냥 학교 구경한답시고 같이 돌아다니지 뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회장씨 그냥 받아들여. 가끔은 도움을 받을 때도 필요한 거야. 학교 밖 구경하는게 동방에만 쳐박혀 있는 것보단 낫지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 괜찮…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우, 괜찮지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 어어..나는 그게 좋지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운, 알겠지? 후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하…항상 이런 식으로 뭔가 도움 받는 기분이네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인이 너 혼자 하기엔 양이 많다며~ 같이 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 라우..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 학교 밖에 있는 게시판에다 홍보 포스터를 붙이러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3591,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D50" activeCellId="1" sqref="A54 D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3652,9 +3864,20 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3664,70 +3887,505 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
+      <c r="D8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
+      <c r="D9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3735,7 +4393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -4411,7 +5071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45753F6-490B-49C7-9115-CC407ABD1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18471553-5EBB-4A51-A16C-8A8898188D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="11" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="16" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205010" sheetId="20" r:id="rId1"/>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="261">
   <si>
     <t>이름</t>
   </si>
@@ -1616,14 +1616,6 @@
   </si>
   <si>
     <t>206140_choice2</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dialogue_ep2/206140</t>
@@ -2264,11 +2256,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2406,11 +2398,11 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2468,7 +2460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3044,11 +3036,11 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3112,7 +3104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3646,11 +3638,11 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3809,11 +3801,11 @@
       <selection activeCell="D50" activeCellId="1" sqref="A54 D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3874,10 +3866,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3888,28 +3880,28 @@
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3923,7 +3915,7 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3937,31 +3929,31 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
         <v>220</v>
-      </c>
-      <c r="D13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3975,15 +3967,15 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3997,39 +3989,39 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4043,7 +4035,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4057,31 +4049,31 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4095,47 +4087,47 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4149,7 +4141,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4163,7 +4155,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4177,20 +4169,20 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4204,31 +4196,31 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4242,7 +4234,7 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4256,7 +4248,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4270,15 +4262,15 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4292,15 +4284,15 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4314,15 +4306,15 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4336,7 +4328,7 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4350,7 +4342,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4364,7 +4356,7 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4378,7 +4370,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4393,15 +4385,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4537,11 +4529,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4679,16 +4671,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4817,15 +4809,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4904,7 +4896,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4912,7 +4904,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4923,10 +4915,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -4937,10 +4929,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -4963,7 +4955,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4972,14 +4965,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5041,10 +5034,10 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5072,19 +5065,19 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5217,11 +5210,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5433,14 +5426,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5502,10 +5495,10 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5536,16 +5529,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5678,11 +5671,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5778,11 +5771,11 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5868,11 +5861,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5958,11 +5951,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6125,11 +6118,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6404,11 +6397,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6641,11 +6634,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18471553-5EBB-4A51-A16C-8A8898188D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3967D5-6B3E-4292-84B8-4E5C3537ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="16" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="11" activeTab="17" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205010" sheetId="20" r:id="rId1"/>
@@ -2256,11 +2256,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2398,11 +2398,11 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2460,7 +2460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3036,11 +3036,11 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3104,7 +3104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3638,11 +3638,11 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3801,11 +3801,11 @@
       <selection activeCell="D50" activeCellId="1" sqref="A54 D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3869,7 +3869,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4389,11 +4389,11 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4529,11 +4529,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4671,11 +4671,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4809,15 +4809,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4964,16 +4964,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5068,11 +5068,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5210,11 +5210,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5429,12 +5429,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5529,11 +5529,11 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5671,11 +5671,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5771,11 +5771,11 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5861,11 +5861,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5951,11 +5951,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6118,11 +6118,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6397,11 +6397,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6634,11 +6634,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3967D5-6B3E-4292-84B8-4E5C3537ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1054E04-6D22-4AE6-B2F6-0932753FCECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="11" activeTab="17" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="13" activeTab="19" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205010" sheetId="20" r:id="rId1"/>
@@ -27,13 +27,15 @@
     <sheet name="206110" sheetId="75" r:id="rId12"/>
     <sheet name="206120" sheetId="80" r:id="rId13"/>
     <sheet name="206131" sheetId="81" r:id="rId14"/>
-    <sheet name="206132" sheetId="82" r:id="rId15"/>
-    <sheet name="206140" sheetId="83" r:id="rId16"/>
-    <sheet name="206140_choice" sheetId="67" r:id="rId17"/>
-    <sheet name="206140_choice1" sheetId="68" r:id="rId18"/>
-    <sheet name="206140_1" sheetId="84" r:id="rId19"/>
-    <sheet name="206140_choice2" sheetId="69" r:id="rId20"/>
-    <sheet name="206140_2" sheetId="85" r:id="rId21"/>
+    <sheet name="206131_1" sheetId="87" r:id="rId15"/>
+    <sheet name="206131_2" sheetId="86" r:id="rId16"/>
+    <sheet name="206132" sheetId="82" r:id="rId17"/>
+    <sheet name="206140" sheetId="83" r:id="rId18"/>
+    <sheet name="206140_choice" sheetId="67" r:id="rId19"/>
+    <sheet name="206140_choice1" sheetId="68" r:id="rId20"/>
+    <sheet name="206140_1" sheetId="84" r:id="rId21"/>
+    <sheet name="206140_choice2" sheetId="69" r:id="rId22"/>
+    <sheet name="206140_2" sheetId="85" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -258,7 +260,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B6E6522-9FC5-498B-BDD3-6D181F18469A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E8DB0ED2-91FC-4F6D-BA25-59A8D5ACFD16}">
       <text>
         <r>
           <rPr>
@@ -291,6 +293,72 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DE873A67-23AE-4276-9CF4-2100E7FA6986}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B6E6522-9FC5-498B-BDD3-6D181F18469A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F088B9C0-F3CA-42EF-AF1F-8E415922DBA6}">
       <text>
         <r>
@@ -318,7 +386,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -503,7 +571,225 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{567289F1-B748-43AB-A902-E49C15C4765E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEE119A-0AFA-44FD-B167-2BCF2C3ADABC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -536,13 +822,13 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1DF8AD69-4CDE-4E36-8A72-A429206044E7}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{25EE3A0E-C1C7-47B5-9E07-A92A7A6AD9BA}">
       <text>
         <r>
           <rPr>
@@ -552,16 +838,168 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -569,13 +1007,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{567289F1-B748-43AB-A902-E49C15C4765E}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1DF8AD69-4CDE-4E36-8A72-A429206044E7}">
       <text>
         <r>
           <rPr>
@@ -834,7 +1272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="270">
   <si>
     <t>이름</t>
   </si>
@@ -1776,10 +2214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에이 또 뭘 미안해 하고 있어! 너 덕분에 이렇게 라도 볼 수 있어서 좋은 걸?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오~말 진짜 이쁘게 한다! 난 라우 맘에 들어!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1804,38 +2238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엥???그런거 아니야 라우! 넌 여기서 기다리고 있어..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이 괜찮아 차피 나 혼자 여기 있어봤자 심심해. 그냥 학교 구경한답시고 같이 돌아다니지 뭐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회장씨 그냥 받아들여. 가끔은 도움을 받을 때도 필요한 거야. 학교 밖 구경하는게 동방에만 쳐박혀 있는 것보단 낫지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도 괜찮…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우, 괜찮지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어? 어어..나는 그게 좋지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운, 알겠지? 후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하하…항상 이런 식으로 뭔가 도움 받는 기분이네…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1849,6 +2251,78 @@
   </si>
   <si>
     <t>일단 학교 밖에 있는 게시판에다 홍보 포스터를 붙이러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이 또 뭘 미안해 하고 있어! 이미 난 괜찮다고 했잖아! 학교도 구경할겸!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥???그런건 아니야…물론 도와주기로는 했지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 내가 그냥 돕는다고 했어! 학교도 구경하고 좋지 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…좀 귀찮겠지만 잘 좀 부탁할께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 혼자서 동아리 방에 있는 것보다 낫지! 그치 오운?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇지만..괜히 미안한걸…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운, 라우가 괜찮다잖아! 그리고 손님 초대해놓고 혼자 덩그러니 두는 것도 예의가 아닌 것 같다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 어차피 해야할 일인거 빨리 갔다와서 놀자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 이제 학교 이곳 저곳에 있는 학교 게시판에다가 홍보 게시물을 붙일 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길을 가다가 보이는 게시판이 보이면 거기다가 붙이면 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 어려울 것도 없네! 금방 후딱 해치워 버리자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 앞에 갔더니 찢어진 포스터가 눈에 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런…누가 또 찢어버렸네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 무슨 일이야? 한두번이 아니야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응… 누군지 모르겠지만 가끔 이런 식으로 찢어버리는 사람들이 있더라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런…잡히기만 해봐라 아주 그냥…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 괜찮아.. 새로 붙이면 되지. 얼른 붙이자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2256,11 +2730,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2394,15 +2868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2460,7 +2934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3033,14 +3507,14 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3104,7 +3578,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3635,14 +4109,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3797,15 +4271,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D50" activeCellId="1" sqref="A54 D50"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3869,7 +4343,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4169,7 +4643,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4177,12 +4651,12 @@
         <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4196,7 +4670,7 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4204,7 +4678,7 @@
         <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4212,7 +4686,7 @@
         <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4220,7 +4694,7 @@
         <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4234,7 +4708,7 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4248,29 +4722,29 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4284,15 +4758,15 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4300,13 +4774,13 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4328,7 +4802,7 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4342,7 +4816,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4356,7 +4830,7 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4370,7 +4844,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4383,17 +4857,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4444,9 +4918,20 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4456,64 +4941,22 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4524,21 +4967,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4584,7 +5029,9 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -4596,64 +5043,64 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4664,23 +5111,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC14C57-8CF5-4830-8632-D1EDE8DB4C56}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4726,6 +5173,15 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
@@ -4742,17 +5198,6 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -4806,6 +5251,288 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4813,11 +5540,11 @@
       <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4957,248 +5684,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="16.09765625" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5210,11 +5695,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5422,24 +5907,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -5448,7 +5933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5461,8 +5946,14 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5475,8 +5966,14 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5489,8 +5986,14 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5498,13 +6001,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5518,10 +6021,272 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5529,11 +6294,11 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5671,11 +6436,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="56.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5768,14 +6533,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="56.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5861,11 +6626,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="56.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5951,11 +6716,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6118,11 +6883,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6397,11 +7162,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6634,11 +7399,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1054E04-6D22-4AE6-B2F6-0932753FCECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401789EC-0930-448E-97FE-B4BA0C024296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="13" activeTab="19" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205010" sheetId="20" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="206131" sheetId="81" r:id="rId14"/>
     <sheet name="206131_1" sheetId="87" r:id="rId15"/>
     <sheet name="206131_2" sheetId="86" r:id="rId16"/>
-    <sheet name="206132" sheetId="82" r:id="rId17"/>
-    <sheet name="206140" sheetId="83" r:id="rId18"/>
-    <sheet name="206140_choice" sheetId="67" r:id="rId19"/>
-    <sheet name="206140_choice1" sheetId="68" r:id="rId20"/>
-    <sheet name="206140_1" sheetId="84" r:id="rId21"/>
-    <sheet name="206140_choice2" sheetId="69" r:id="rId22"/>
-    <sheet name="206140_2" sheetId="85" r:id="rId23"/>
+    <sheet name="206132_choice" sheetId="88" r:id="rId17"/>
+    <sheet name="206132" sheetId="82" r:id="rId18"/>
+    <sheet name="206132_1" sheetId="89" r:id="rId19"/>
+    <sheet name="206132_2" sheetId="90" r:id="rId20"/>
+    <sheet name="206140" sheetId="83" r:id="rId21"/>
+    <sheet name="206140_choice" sheetId="67" r:id="rId22"/>
+    <sheet name="206140_1" sheetId="84" r:id="rId23"/>
+    <sheet name="206140_2" sheetId="85" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -326,6 +327,191 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FA21AF93-7E94-431A-B9CC-5B6C1B9D7169}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B6E6522-9FC5-498B-BDD3-6D181F18469A}">
       <text>
         <r>
@@ -353,7 +539,106 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1795E779-BC5A-4095-A23F-EC9609E7280B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{567289F1-B748-43AB-A902-E49C15C4765E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D1ED847F-B755-4940-983D-67BB4387CC94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -386,7 +671,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -571,225 +856,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{567289F1-B748-43AB-A902-E49C15C4765E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEE119A-0AFA-44FD-B167-2BCF2C3ADABC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -822,192 +889,7 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{25EE3A0E-C1C7-47B5-9E07-A92A7A6AD9BA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1272,7 +1154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="429">
   <si>
     <t>이름</t>
   </si>
@@ -1384,10 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice의 경우 +값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,14 +1278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>205010</t>
   </si>
   <si>
@@ -1432,9 +1302,6 @@
     <t>205120_1</t>
   </si>
   <si>
-    <t>206140_choice1</t>
-  </si>
-  <si>
     <t>206140_choice</t>
   </si>
   <si>
@@ -1637,10 +1504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하하하, 농담이야 농담!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라우씨...저기 원래 넣기 어렵대요.. 진정해 진정..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2050,279 +1913,932 @@
     <t>206131</t>
   </si>
   <si>
+    <t>dialogue_ep2/206140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206140_1</t>
+  </si>
+  <si>
+    <t>206140_2</t>
+  </si>
+  <si>
+    <t>우와! 너네 동아리방 시설 좋다! 깔끔하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 막상 근데 우리 학교 동아리방에서 제일 좁고 안 좋은 편인걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 사립 명문학교 답다는 생각을 하는 라우였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 오운, 너가 저번에 말했던 친구야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 방에 있던 3명의 학생이 있다는 걸 조금 무서워 보이는 학생의 말을 듣고 늦게나마 눈치를 챘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어~라우! 인사해! 다 우리 동아리 친구들이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 원마을에서 온 라우라고 합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…타지인을 볼 기회가 거의 없었는데…반가워요. 저는 리카라고 해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말편하게 해! 난 브린이고 정치외교학과야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 학과도 말해야 되나? 나는 컴공이야. 해킹 쪽으로 전문으로 하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와…저도 공대생이지만 해커라니 멋져요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 공대생이구나? 어디?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 기계공이요! 아직 진로는 모르겠지만요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…다들 내가 여기 있으면 왜 여깄냐고 하는데 너는 그런 말을 안하는 구나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 리카가 비록 수석입학을 했다해도 뭐 너같은 인재가 여기에 왜 있냐라는 말은 하도 해서 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 자기가 원하는 동아리 들어가겠다는 데 그걸로 뭐라하는 사람들이 이상한거죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반가워요. 저는 루인이라고 합니다. 저는 사회학과에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 반가워요! 뭔가 다양한 사람들과 만나게 되서 좋네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 좋은 친구들이야! 그래서 소개해주고 싶었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실없는 말은..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이…리카 좋으면서~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 빈말하는 친구는 아니니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 평소에도 이렇게 자주 동아리 방에 있으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨날은 아니어도 매주 만나긴 하는데 그게 딱 오늘이었지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 오운이랑 같이 동아리 홍보 포스터를 붙이고 다니려고 모였어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하필 오늘 바쁜 날에 만나서 아쉽다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝나고 얘기하면 되지 뭐. 워낙 다들 시간 내기 바빠서말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라고, 가장 바쁘신 분이 말씀하셨네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요! 끝나고도 더 얘기하면 되니까요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우 미안…애들이 되는 시간이 이날 밖에 없어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~말 진짜 이쁘게 한다! 난 라우 맘에 들어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 다들 성격이 완전 다른데 뭔가 왁자지껄하다는 기분을 느꼈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자자, 일단 사담은 끝나고 해보자고! 오늘 각자 어딜 담당할 지는 알지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 근데 오운 너가 담당한 데가 좀 많던데 괜찮겠어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우랑 같이 가면 되겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…오자마자 부려먹기 위한 계획이셨군여 회장님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하…항상 이런 식으로 뭔가 도움 받는 기분이네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인이 너 혼자 하기엔 양이 많다며~ 같이 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 라우..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 학교 밖에 있는 게시판에다 홍보 포스터를 붙이러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이 또 뭘 미안해 하고 있어! 이미 난 괜찮다고 했잖아! 학교도 구경할겸!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥???그런건 아니야…물론 도와주기로는 했지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 내가 그냥 돕는다고 했어! 학교도 구경하고 좋지 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…좀 귀찮겠지만 잘 좀 부탁할께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 혼자서 동아리 방에 있는 것보다 낫지! 그치 오운?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇지만..괜히 미안한걸…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운, 라우가 괜찮다잖아! 그리고 손님 초대해놓고 혼자 덩그러니 두는 것도 예의가 아닌 것 같다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 어차피 해야할 일인거 빨리 갔다와서 놀자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 이제 학교 이곳 저곳에 있는 학교 게시판에다가 홍보 게시물을 붙일 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길을 가다가 보이는 게시판이 보이면 거기다가 붙이면 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 어려울 것도 없네! 금방 후딱 해치워 버리자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 앞에 갔더니 찢어진 포스터가 눈에 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런…누가 또 찢어버렸네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 무슨 일이야? 한두번이 아니야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응… 누군지 모르겠지만 가끔 이런 식으로 찢어버리는 사람들이 있더라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런…잡히기만 해봐라 아주 그냥…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 괜찮아.. 새로 붙이면 되지. 얼른 붙이자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 여기도 찢어져 있잖아??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라…그러게…? 이렇게 연속적으로 찢어진 걸 본 적은 없는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 일부러 찾아서 찢는게 분명해…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서….설마…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 할 짓없는 애들이 이런 짓을 하는 거지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판에 다가갔더니 뭔가 껄렁해보이는 학생들이 낄낄 거리고 있었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그 옆에는 동아리 포스터가 찢어져 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206132_choice</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/206132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206132_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206132_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큭큭 진짜 얘들은 징하지도 않냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지들은 아주 PC한 척하는 거 꼴도 보기 싫어 죽겠어 진짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까~정의로운 척하는거 진짜 헛구역질 난다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가봐도 오운의 동아리를 욕하는 말들이었다,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 본 라우는 이를 꽉 물며 나서려고 하는 순간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(작은 목소리로)그냥 모른 척 하고 지나가자…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무리 봐도 앞으로 계속 이럴 것 같은데… 어쩌지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 저들을 무서워 한다기 보단 괜히 갈등에 휩쓸리고 싶지 않은 것 처럼 보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이대로 보고만 있으면 앞으로도 오운 동아리의 노력이 비웃음을 살 것이라는 생각이 들었고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것만은 오운의 친구로서 참지 못할 것 같았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 성큼 성큼 그들에게 다가갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥..? 뭐야 원인이 왜 여기 있지, 유학생인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아뇨, 당신들이 하는 얘기 다 들었어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 라우의 뒤를 힐끔 쳐다보더니 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~귀하신 회장님의 친구시구나~?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐고, 당신들 이런 짓하는거 쪽팔린 줄 알아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음에 들든 안 들든 이런 짓하는게 퍽이나 교양 넘치는 짓이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 스스로 인지부조화오니까 그러는 것 같은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스스로들이 할 짓 없이 이런 식으로 열등감 없애는 짓하는 것로 밖에 안보이거든요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 짓 할 시간에 잠이나 자러 가버리던가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 라우의 말에 어버버 거리는 표정을 짓고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저리 비켜요, 당신들이 찢은 포스터에 다시 붙일거니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳇…지들이 잘난 줄 알지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 꿍얼거리면서 자리를 비켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우…대단하다…나라면 절대 못했을거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런 애들은 스스로 쪽팔린 줄 알아야해. 그냥 나는 내 할 일을 했을 뿐이야. 얼른 포스터 붙이자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(외부인인 내가 괜히 끼어들어봤자 오운에게 피해갈 것 같아…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아…다음에 붙이면 되지…이번엔 그냥 지나가자…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 오운에 말에 수긍하면서 그냥 지나치기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들을 지나치자 그들은 오운을 알아보고 아는 척을 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어~ 오운 회장님~ 여기 종이가 찢어져 있던데??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…다음에 붙일 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에도 찢어져 있을텐데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 키득거리며 오운을 비웃었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저것들이…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아 라우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 별다른 대응을 하지 못하고 포스터를 교체하지도 못한 채 지나갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,m3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 포스터를 붙이고 오고 나서 신나게 저녁 떄 까지 이야기의 꽃을 피웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 각자 약속이 있던 리카, 루인, 브린은 먼저 나갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 라우와 오운 둘이서만 동아리 방에 남았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 많이 힘들었지? 고생많았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥? 아냐~ 나야 너네 학교 구경도 하고 또 애들이랑 얘기할 수 있어서 너무 재밌었어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분이야! 고마워 오운!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 다행이야. 너도 느꼈겠지만 다들 좋은 친구들이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 활동하면서 여러 갈등들이 있을 때 마다 저 친구들이 있었기에 잘 이겨낼 수 있었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇, 혹시 아까 처럼 그런 경우가 많았던 거야? 또 어떤 갈등이 있었는데..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음… 예전에 성소수자 인권 관련해서 현수막을 달았는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 매번 누가 현수막을 찢어버리는 거야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 할 짓도 없나, 왜 그런 짓을 하는거야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 만약 평소의 나라면 안절부절 했을 텐데, 친구들이 참지 않고 잠복해서 결국 범인을 잡을 수 있었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 친구들이네 정말. 그리고 계속 너를 깎아 내리지만, 너도 강단 있다고 생각해 난.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에? 내가? 아냐.. 내가 무슨…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 애들이 괜히 너를 믿고 따르는게 아니라고 생각해. 보면 은근 할 건 다 하고 다니는 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남들의 시선이 어떠하든 간에 결국 너가 하고자 하는 바를 이루려고 하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 처음에 너가 소심한 것 같았는데 지금은 외유내강인 거 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…아냐…내가 뭐라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 회장님… 와…나타나네… 최고의 회장님, 호!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잇, 진짜! 놀리지마!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 깔깔 거리면서 이야기를 나누다 오운이 진지한 이야기를 꺼내기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비록 내가 하고 싶어서 한거지만, 가끔 스스로 이게 맞나 싶을 떄가 있기도 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라?? 왜?? 뭐 떄문에…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 잠시 생각에 잠기다 잠시후 이야기를 꺼냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가끔 당사자성이 없는 다른 사람의 인권을 챙기려고 할 때, 떄로 당사자들에게 비판 받을 때가 있거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 그게 가끔 두렵더라고… 사실 그들 입장에서는 기만이라고 느껴질 수 있을 거라고 생각이 들더라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 내가 하는 것들이 과연 그들을 돕는 것이 맞을까라는 생각이 들 때가 있어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운의 진지한 생각에 대해서 나는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽하지 못하더라도 가만히 방관하는 것보다 낫다고 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 누군가의 인권을 챙긴다는 것은 좀 허황된 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐든 양면의 칼날이 있듯이, 예상치 못한 리스크는 따르는 게 아닐까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특히 인권은 정말 어려운 문제잖아. 그래서 사실 대부분 사람들이 외면하기도 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다들 외면하는 와중에 누군가가 바라봐준 다는 것 만으로도 나는 큰 의미가 있다고 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 그 과정에서 완벽하진 못하더라도, 가장 중요한 것은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 좋은 영향을 끼치기 위해 노력하겠다는 자세니까 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 너무 걱정안해도 될 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 그런 생각을 가지고 스스로 고찰하고 있다는 것 만으로도 큰 의미가 있다고 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 그들에게 실수하게 된다면 책임을 지고 고치고 더 나아지면 되는 거니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응….라우 너말이 맞아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각해보니 나는 이제까지 완벽해야 된다는 강박 관념에 갇혀있던거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴 수 있지. 하지만 완벽한 건 사실 불가능하다고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무래도 당사자가 아닌이상, 완벽하게 그들의 입장을 이해할 수 없잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇기에 더더욱 조심해야 되는 건 맞지. 하지만 완벽하지 못한다는 사실에 스트레스 받을 필요는 없을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한 건 너가 어떤 자세로 어떤 영향으로 어떤 변화를 일으키고 싶은지니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 내가 어떤 자세로 인권 운동에 임해야 할지 감을 잡은 것 같아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스스로 타박하기 보단, 적어도 방관하지 않는 자신에게 잘했다고 말해주는게 좋지 않을까 싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응…이제것 나는 나를 탓하고 자책하기만 했던 것 같아… 그래도 자만하지 않으려고 노력해야겠지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇지. 항상 조심해야 되는 거라고 생각해. 그렇지만 자책은 하지 말자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응! 고마워 라우. 널 만난 건 내 인생의 큰 행운인 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 그렇게 까지야…하핫! 도움이 되었다면 다행이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 사실 남이 뭐라고 감히 남의 인권을 왈가왈부 할 수 있나 싶어서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 너가 고생하고 있는건 알지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 남인 이상, 완벽하게 남의 인권을 챙긴다는 건 말도 안되는 거지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…애초에…남이 누군가의 인권을 챙긴다는 게 말이 안되지 않나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너말대로 당사자가 보기엔 기만으로 보일 수 있다고 생각해 나도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 아예 무관심한 것 보다는 낫지만…완벽하게 모든 인권을 챙기는 건 말이 안된다는 게 내 생각이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 너무 머리 아프게 생각하지마. 그냥 안하는 것보단 낫다고 간단하게 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국은 그런 건가….어쩔 수 없는 걸까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(유독 오운의 표정이 이제것 봤던 표정 중에서 가장 슬퍼 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하지만 현실은 현실이다. 현실을 인지할 필요가 있다고 생각하니까.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사람들이 모여있는 곳이 보인다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어떤 한 사람이 버스킹을 하는 것 처럼 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 버스킹 하는 것 같은데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 버스킹 하는 사람들 종종 보이더라고요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오!! 재밌겠다! 구경해요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 기대했던 것과 달리 버스킹하는 남자는 자신감만 넘치고 실력은 영 꽝이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나가던 시민1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야.. 시끄럽게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(괜히 내가 다 민망하네…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하핫…그래도 멋지다고 생각해요…남들 앞에서 서서 자신을 보인다는 건 저는 못해요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴 그렇게 생각하면 대단하면서, 또 그 자신감이 대단하다는 생각이 들기도 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 이 동상 우리 마을에도 있는데!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 맞습니다. 잘 아시네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…깜짝아.. 안녕하세요….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 이 공원은 세 마을의 화합을 위해 만들어진 공원이에요. 그래서 아마 다른 마을에 있는 공원에도 동상이 있을 겁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 그래서 우리 마을 공원에도 있었구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 기억 속에는 이 동상이 원마을, 세모마을, 네모마을의 화합을 의미했던 거라고 기억하는데… 맞나..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 사실상 마을간 교류가 거의 없다시피 하잖아요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사실 오운의 말이 맞긴 하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 세모마을로 여행을 간다 했을 때 많은 사람들이 말리긴 했었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(옛날에는 교류가 활발했지만, 각 마을이 가지고 있는 차이가 갈등을 일으켰고 현재는 최소한으로 필요한 것들만 교류한다고 들었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원마을은 종종 원인이 아닌 사람이 있는데, 듣기론 세모마을에는 없다고 들었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아마…세모마을에 뭔가 있는 것이겠지…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 다른 마을을 한번 가보고 싶은데 기회가 쉽게 나지 않네요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 지금 이쪽에 계신 원인을 처음 뵐 정도로 다른 마을 사람들을 볼일이 없긴 했네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴 거면 이 동상과 공원을 세운 의미가 뭘까요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 오운의 말에 숙연해졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…그래도 아예 없는 것보단 조금의 희망이 있지 않을까요..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아요! 그래도 저도 이렇게 세모마을에 여행왔고… 불가능한 건 아니니까요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 말씀입니다. 편히 공원 잘 구경하시고 무슨 일이 있으면 저에게 말씀해주시면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 감사합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하, 농담이에요 농담!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206131_1</t>
+  </si>
+  <si>
+    <t>206131_2</t>
+  </si>
+  <si>
+    <t>206132_1</t>
+  </si>
+  <si>
+    <t>206132_2</t>
+  </si>
+  <si>
     <t>206132</t>
-  </si>
-  <si>
-    <t>206140_choice2</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206140_1</t>
-  </si>
-  <si>
-    <t>206140_2</t>
-  </si>
-  <si>
-    <t>우와! 너네 동아리방 시설 좋다! 깔끔하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 막상 근데 우리 학교 동아리방에서 제일 좁고 안 좋은 편인걸?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 사립 명문학교 답다는 생각을 하는 라우였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라? 오운, 너가 저번에 말했던 친구야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 방에 있던 3명의 학생이 있다는 걸 조금 무서워 보이는 학생의 말을 듣고 늦게나마 눈치를 챘다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어어~라우! 인사해! 다 우리 동아리 친구들이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요! 원마을에서 온 라우라고 합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오오…타지인을 볼 기회가 거의 없었는데…반가워요. 저는 리카라고 해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말편하게 해! 난 브린이고 정치외교학과야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 학과도 말해야 되나? 나는 컴공이야. 해킹 쪽으로 전문으로 하고 있어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우와…저도 공대생이지만 해커라니 멋져요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 공대생이구나? 어디?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 기계공이요! 아직 진로는 모르겠지만요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…다들 내가 여기 있으면 왜 여깄냐고 하는데 너는 그런 말을 안하는 구나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아 리카가 비록 수석입학을 했다해도 뭐 너같은 인재가 여기에 왜 있냐라는 말은 하도 해서 말이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 자기가 원하는 동아리 들어가겠다는 데 그걸로 뭐라하는 사람들이 이상한거죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반가워요. 저는 루인이라고 합니다. 저는 사회학과에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 반가워요! 뭔가 다양한 사람들과 만나게 되서 좋네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 좋은 친구들이야! 그래서 소개해주고 싶었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실없는 말은..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이…리카 좋으면서~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운은 빈말하는 친구는 아니니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원래 평소에도 이렇게 자주 동아리 방에 있으신가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨날은 아니어도 매주 만나긴 하는데 그게 딱 오늘이었지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 오운이랑 같이 동아리 홍보 포스터를 붙이고 다니려고 모였어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하필 오늘 바쁜 날에 만나서 아쉽다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝나고 얘기하면 되지 뭐. 워낙 다들 시간 내기 바빠서말이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라고, 가장 바쁘신 분이 말씀하셨네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아요! 끝나고도 더 얘기하면 되니까요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우 미안…애들이 되는 시간이 이날 밖에 없어서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오~말 진짜 이쁘게 한다! 난 라우 맘에 들어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 다들 성격이 완전 다른데 뭔가 왁자지껄하다는 기분을 느꼈다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자자, 일단 사담은 끝나고 해보자고! 오늘 각자 어딜 담당할 지는 알지? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼, 근데 오운 너가 담당한 데가 좀 많던데 괜찮겠어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우랑 같이 가면 되겠네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오…오자마자 부려먹기 위한 계획이셨군여 회장님?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하…항상 이런 식으로 뭔가 도움 받는 기분이네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루인이 너 혼자 하기엔 양이 많다며~ 같이 하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워 라우..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 학교 밖에 있는 게시판에다 홍보 포스터를 붙이러 가자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이 또 뭘 미안해 하고 있어! 이미 난 괜찮다고 했잖아! 학교도 구경할겸!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엥???그런건 아니야…물론 도와주기로는 했지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아 내가 그냥 돕는다고 했어! 학교도 구경하고 좋지 뭐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오…좀 귀찮겠지만 잘 좀 부탁할께.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 혼자서 동아리 방에 있는 것보다 낫지! 그치 오운?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그건 그렇지만..괜히 미안한걸…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운, 라우가 괜찮다잖아! 그리고 손님 초대해놓고 혼자 덩그러니 두는 것도 예의가 아닌 것 같다구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아, 어차피 해야할 일인거 빨리 갔다와서 놀자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리는 이제 학교 이곳 저곳에 있는 학교 게시판에다가 홍보 게시물을 붙일 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길을 가다가 보이는 게시판이 보이면 거기다가 붙이면 돼!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 어려울 것도 없네! 금방 후딱 해치워 버리자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 앞에 갔더니 찢어진 포스터가 눈에 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런…누가 또 찢어버렸네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 무슨 일이야? 한두번이 아니야???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응… 누군지 모르겠지만 가끔 이런 식으로 찢어버리는 사람들이 있더라고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런…잡히기만 해봐라 아주 그냥…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 괜찮아.. 새로 붙이면 되지. 얼른 붙이자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2333,7 +2849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2371,6 +2887,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2394,7 +2917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2408,6 +2931,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2739,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2795,7 +3321,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2809,7 +3335,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2823,7 +3349,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2868,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -2881,7 +3407,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2892,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2920,7 +3446,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2931,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -2945,21 +3471,21 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2973,21 +3499,21 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3001,21 +3527,21 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3029,21 +3555,21 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3057,21 +3583,21 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3085,21 +3611,21 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3113,21 +3639,21 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3141,7 +3667,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3155,21 +3681,21 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3183,21 +3709,21 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3211,21 +3737,21 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3239,21 +3765,21 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3267,21 +3793,21 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3295,21 +3821,21 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3323,21 +3849,21 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3351,21 +3877,21 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3379,21 +3905,21 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3407,21 +3933,21 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3435,21 +3961,21 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3463,21 +3989,21 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3491,7 +4017,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +4045,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3530,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3558,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3575,21 +4101,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3603,21 +4129,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3631,21 +4157,21 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3659,7 +4185,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3673,21 +4199,21 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3701,21 +4227,21 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3729,21 +4255,21 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3757,7 +4283,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3771,21 +4297,21 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3799,21 +4325,21 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3827,21 +4353,21 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3855,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3869,21 +4395,21 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3897,21 +4423,21 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3925,21 +4451,21 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3953,21 +4479,21 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3981,21 +4507,21 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4009,7 +4535,7 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4023,7 +4549,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4037,35 +4563,35 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4079,21 +4605,21 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4121,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4132,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4160,7 +4686,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4168,26 +4694,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4201,21 +4727,21 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4229,35 +4755,35 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4295,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4323,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4340,56 +4866,56 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4403,31 +4929,31 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4441,15 +4967,15 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
         <v>216</v>
-      </c>
-      <c r="D16" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4463,39 +4989,39 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4509,45 +5035,45 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4561,47 +5087,47 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4615,21 +5141,21 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4643,72 +5169,72 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4722,15 +5248,15 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4744,29 +5270,29 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4780,29 +5306,29 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4816,35 +5342,35 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4859,9 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -4872,7 +5396,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4883,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4911,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4919,30 +5443,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4956,7 +5480,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4970,9 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -4983,7 +5505,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4994,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5022,7 +5544,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5030,21 +5552,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5058,21 +5580,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5086,21 +5608,21 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5112,11 +5634,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC14C57-8CF5-4830-8632-D1EDE8DB4C56}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -5127,7 +5647,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5138,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5166,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5177,222 +5697,249 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
+      <c r="D9">
         <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5407,7 +5954,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5418,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5446,237 +5993,391 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="D6" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="D10" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
+      <c r="D11" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51">
+      <c r="D6" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5691,345 +6392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F2399-C2B2-488E-AB5F-EAF0C6756577}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.4140625" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6042,7 +6405,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6053,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6081,83 +6444,160 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6167,116 +6607,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D673B3C-909F-479B-8E0D-2FE787B82E18}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.4140625" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6286,12 +6780,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
-  <dimension ref="A1:D12"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6303,7 +6797,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6314,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6342,29 +6836,1008 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="D6" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -6376,16 +7849,22 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
+      <c r="D8" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6393,32 +7872,83 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6433,7 +7963,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6445,7 +7975,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6456,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6484,7 +8014,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6501,21 +8031,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6530,7 +8060,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4335BB41-966B-4FAE-BB47-FEF80A5C6C0D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -6545,7 +8075,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6556,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6584,7 +8114,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6594,22 +8124,126 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6620,10 +8254,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980820C-C133-4122-886E-5F0B3F20A27D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6635,7 +8269,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6646,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6674,7 +8308,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6684,22 +8318,256 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6725,7 +8593,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6736,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6764,7 +8632,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6772,16 +8640,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6795,21 +8663,21 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6823,7 +8691,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6837,21 +8705,21 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6865,7 +8733,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6892,7 +8760,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6903,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6931,7 +8799,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6948,21 +8816,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6976,21 +8844,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7004,7 +8872,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7018,7 +8886,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7032,21 +8900,21 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7060,7 +8928,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7074,35 +8942,35 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7116,21 +8984,21 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7144,7 +9012,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -7171,7 +9039,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7182,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7210,7 +9078,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7227,21 +9095,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7255,21 +9123,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7283,21 +9151,21 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7311,7 +9179,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7325,21 +9193,21 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7353,21 +9221,21 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7381,7 +9249,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +9264,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7408,7 +9276,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7419,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7447,7 +9315,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7464,21 +9332,21 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7492,35 +9360,35 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7534,21 +9402,21 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7562,7 +9430,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11405825-E737-41CA-9932-A8725DB6A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2801D-394C-4A0A-84D4-A187B86631AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -4041,7 +4041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -5444,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9891,7 +9891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EF6BC-CC1F-4F82-BA6E-F8EA07FAEB7B}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2801D-394C-4A0A-84D4-A187B86631AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB28847-5CD2-473A-9D68-B26069EA358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="14" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="205121_task" sheetId="91" r:id="rId6"/>
     <sheet name="205121_success" sheetId="53" r:id="rId7"/>
     <sheet name="205121_fail" sheetId="73" r:id="rId8"/>
-    <sheet name="205130_tak" sheetId="92" r:id="rId9"/>
+    <sheet name="205130_task" sheetId="92" r:id="rId9"/>
     <sheet name="205130" sheetId="74" r:id="rId10"/>
     <sheet name="205130_1" sheetId="78" r:id="rId11"/>
     <sheet name="205130_2" sheetId="79" r:id="rId12"/>
@@ -5444,7 +5444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -6435,13 +6435,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="41.08203125" customWidth="1"/>
     <col min="2" max="2" width="15.9140625" customWidth="1"/>
     <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6589,7 +6592,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6844,7 +6847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -7312,8 +7317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB28847-5CD2-473A-9D68-B26069EA358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2253A9D-8481-4666-A193-EA7DD1C21588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="14" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="14" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -1565,10 +1565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nextFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3223,6 +3219,9 @@
   <si>
     <t>dialogue_ep2/205130_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
   </si>
 </sst>
 </file>
@@ -3639,16 +3638,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3659,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3687,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3695,31 +3694,31 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3730,38 +3729,38 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3772,52 +3771,52 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3828,24 +3827,24 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3863,16 +3862,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3883,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3911,7 +3910,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3925,24 +3924,24 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3953,38 +3952,38 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3995,24 +3994,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4023,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4041,20 +4040,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4065,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4093,7 +4092,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4104,35 +4103,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4143,24 +4142,24 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4171,24 +4170,24 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4199,24 +4198,24 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4227,24 +4226,24 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4255,24 +4254,24 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4283,24 +4282,24 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4311,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4325,24 +4324,24 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4353,24 +4352,24 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4381,24 +4380,24 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4409,24 +4408,24 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4437,24 +4436,24 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4465,24 +4464,24 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4493,24 +4492,24 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4521,24 +4520,24 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4549,24 +4548,24 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4577,24 +4576,24 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4605,24 +4604,24 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4633,24 +4632,24 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4661,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4683,16 +4682,16 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4703,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4731,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4745,24 +4744,24 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4773,24 +4772,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4801,24 +4800,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4829,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4843,24 +4842,24 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4871,24 +4870,24 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4899,24 +4898,24 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4927,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4941,24 +4940,24 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4969,24 +4968,24 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4997,24 +4996,24 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5025,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5039,24 +5038,24 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5067,24 +5066,24 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5095,24 +5094,24 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5123,24 +5122,24 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5151,24 +5150,24 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5179,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5193,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5207,38 +5206,38 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5249,24 +5248,24 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5285,16 +5284,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5305,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5333,7 +5332,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5341,26 +5340,26 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5371,24 +5370,24 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5399,38 +5398,38 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5444,20 +5443,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5468,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5496,7 +5495,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5510,59 +5509,59 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>198</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5573,34 +5572,34 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5611,18 +5610,18 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5633,42 +5632,42 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5679,48 +5678,48 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5731,50 +5730,50 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5785,24 +5784,24 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5813,75 +5812,75 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5892,18 +5891,18 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5914,32 +5913,32 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5950,32 +5949,32 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5986,38 +5985,38 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6032,18 +6031,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6054,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6082,7 +6083,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6090,30 +6091,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6124,10 +6125,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6143,16 +6144,16 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6163,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6191,7 +6192,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6199,21 +6200,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6224,24 +6225,24 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6252,24 +6253,24 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6285,16 +6286,16 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6305,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6333,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6347,24 +6348,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6375,24 +6376,24 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6403,24 +6404,24 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6436,20 +6437,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -6500,30 +6501,30 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6545,13 +6546,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6559,18 +6560,18 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -6595,16 +6596,16 @@
       <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6615,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6643,7 +6644,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6651,46 +6652,46 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="D6" s="3" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="D6" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
         <v>272</v>
-      </c>
-      <c r="D8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6701,24 +6702,24 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6729,10 +6730,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6751,16 +6752,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6771,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6799,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6813,24 +6814,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6851,16 +6852,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6871,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6899,7 +6900,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6907,22 +6908,22 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.5">
+      <c r="D6" s="3" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51">
-      <c r="D6" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6933,18 +6934,18 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6955,23 +6956,23 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6982,24 +6983,24 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7010,10 +7011,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7024,10 +7025,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7038,10 +7039,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7052,15 +7053,15 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="D20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7071,37 +7072,37 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="D23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7112,24 +7113,24 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7146,16 +7147,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7166,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7194,7 +7195,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7208,69 +7209,69 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
         <v>306</v>
-      </c>
-      <c r="D9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7281,29 +7282,29 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7317,20 +7318,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7341,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7369,7 +7370,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7377,363 +7378,363 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="D6" s="3" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="D6" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>320</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
-      </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>320</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>321</v>
-      </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>320</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>321</v>
-      </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>320</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>321</v>
-      </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>320</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>321</v>
-      </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>320</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>321</v>
-      </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>320</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>321</v>
-      </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7749,19 +7750,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -7812,30 +7813,30 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7854,41 +7855,41 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" t="s">
         <v>314</v>
-      </c>
-      <c r="F7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -7913,16 +7914,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7933,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7961,7 +7962,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7975,24 +7976,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8003,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8017,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8031,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8045,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8059,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8073,38 +8074,38 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8115,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8129,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8143,10 +8144,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8157,38 +8158,38 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8199,24 +8200,24 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8227,24 +8228,24 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8255,10 +8256,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -8272,20 +8273,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8296,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8324,7 +8325,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8338,24 +8339,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8366,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8380,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8394,10 +8395,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8408,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8422,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8436,24 +8437,24 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8464,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8478,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8492,24 +8493,24 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8520,24 +8521,24 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8548,15 +8549,15 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="D21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -8575,16 +8576,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8595,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8623,7 +8624,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8637,10 +8638,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8651,10 +8652,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8665,24 +8666,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8693,23 +8694,23 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" t="s">
         <v>390</v>
-      </c>
-      <c r="D11" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8720,24 +8721,24 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8748,10 +8749,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8770,16 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8789,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8817,7 +8818,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8831,24 +8832,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8859,18 +8860,18 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
         <v>396</v>
-      </c>
-      <c r="D8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8881,18 +8882,18 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8903,24 +8904,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8931,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8945,10 +8946,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8959,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8973,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8987,59 +8988,59 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="D21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9050,18 +9051,18 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9072,10 +9073,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9093,16 +9094,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9113,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -9141,7 +9142,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -9149,16 +9150,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9169,24 +9170,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9197,10 +9198,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9211,24 +9212,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9239,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -9257,21 +9258,21 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -9322,30 +9323,30 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9356,16 +9357,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" t="s">
         <v>432</v>
-      </c>
-      <c r="F6" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -9381,19 +9382,19 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9404,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -9432,7 +9433,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -9446,24 +9447,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -9474,24 +9475,24 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9502,10 +9503,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9516,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9530,24 +9531,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9558,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9572,38 +9573,38 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9614,24 +9615,24 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9642,10 +9643,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -9663,16 +9664,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9683,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -9711,7 +9712,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -9725,24 +9726,24 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -9753,24 +9754,24 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9781,24 +9782,24 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9809,10 +9810,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9823,24 +9824,24 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9851,24 +9852,24 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9879,10 +9880,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9897,21 +9898,21 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -9962,30 +9963,30 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9996,7 +9997,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10007,7 +10008,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10018,7 +10019,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10029,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9">
         <v>1</v>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2253A9D-8481-4666-A193-EA7DD1C21588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0874CCE-D724-4C66-A5D5-0578F2C79C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="14" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="3912" yWindow="408" windowWidth="17280" windowHeight="9420" firstSheet="20" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="440">
   <si>
     <t>이름</t>
   </si>
@@ -3638,11 +3638,11 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3862,11 +3862,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4044,11 +4044,11 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4106,7 +4106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4682,11 +4682,11 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4750,7 +4750,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5284,11 +5284,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5447,11 +5447,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5515,7 +5515,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6035,11 +6035,11 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6103,7 +6103,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6144,11 +6144,11 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6286,11 +6286,11 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6354,7 +6354,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6437,15 +6437,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6572,12 +6572,6 @@
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6596,11 +6590,11 @@
       <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6655,7 +6649,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="D6" s="3" t="s">
         <v>263</v>
       </c>
@@ -6752,11 +6746,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6852,11 +6846,11 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6911,7 +6905,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="49.5">
+    <row r="6" spans="1:4" ht="52.2">
       <c r="D6" s="3" t="s">
         <v>280</v>
       </c>
@@ -7147,11 +7141,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7215,7 +7209,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -7322,11 +7316,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7381,7 +7375,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="D6" s="3" t="s">
         <v>317</v>
       </c>
@@ -7747,17 +7741,17 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7885,17 +7879,6 @@
       </c>
       <c r="F8" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7914,11 +7897,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="60.25" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="60.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7982,7 +7965,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8277,10 +8260,10 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8576,11 +8559,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8770,11 +8753,11 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9094,11 +9077,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9258,16 +9241,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9385,11 +9368,11 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9664,11 +9647,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9895,19 +9878,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EF6BC-CC1F-4F82-BA6E-F8EA07FAEB7B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10034,11 +10017,6 @@
       </c>
       <c r="D9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0874CCE-D724-4C66-A5D5-0578F2C79C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50939F4-62B4-40BE-8664-82B451CD6436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="408" windowWidth="17280" windowHeight="9420" firstSheet="20" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="1480" yWindow="770" windowWidth="19200" windowHeight="10060" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
     <sheet name="205120" sheetId="51" r:id="rId2"/>
     <sheet name="205120_1" sheetId="76" r:id="rId3"/>
-    <sheet name="205120_2" sheetId="77" r:id="rId4"/>
-    <sheet name="205121" sheetId="72" r:id="rId5"/>
-    <sheet name="205121_task" sheetId="91" r:id="rId6"/>
-    <sheet name="205121_success" sheetId="53" r:id="rId7"/>
-    <sheet name="205121_fail" sheetId="73" r:id="rId8"/>
-    <sheet name="205130_task" sheetId="92" r:id="rId9"/>
-    <sheet name="205130" sheetId="74" r:id="rId10"/>
-    <sheet name="205130_1" sheetId="78" r:id="rId11"/>
-    <sheet name="205130_2" sheetId="79" r:id="rId12"/>
-    <sheet name="206110" sheetId="75" r:id="rId13"/>
-    <sheet name="206120" sheetId="80" r:id="rId14"/>
-    <sheet name="206131" sheetId="81" r:id="rId15"/>
-    <sheet name="206131_1" sheetId="87" r:id="rId16"/>
-    <sheet name="206131_2" sheetId="86" r:id="rId17"/>
-    <sheet name="206132_choice" sheetId="88" r:id="rId18"/>
-    <sheet name="206132" sheetId="82" r:id="rId19"/>
-    <sheet name="206132_1" sheetId="89" r:id="rId20"/>
-    <sheet name="206132_2" sheetId="90" r:id="rId21"/>
-    <sheet name="206140" sheetId="83" r:id="rId22"/>
-    <sheet name="206140_choice" sheetId="67" r:id="rId23"/>
-    <sheet name="206140_1" sheetId="84" r:id="rId24"/>
-    <sheet name="206140_2" sheetId="85" r:id="rId25"/>
+    <sheet name="205120_2" sheetId="93" r:id="rId4"/>
+    <sheet name="205120_3" sheetId="77" r:id="rId5"/>
+    <sheet name="205121" sheetId="72" r:id="rId6"/>
+    <sheet name="205121_task" sheetId="91" r:id="rId7"/>
+    <sheet name="205121_success" sheetId="53" r:id="rId8"/>
+    <sheet name="205121_fail" sheetId="73" r:id="rId9"/>
+    <sheet name="205130_task" sheetId="92" r:id="rId10"/>
+    <sheet name="205130" sheetId="74" r:id="rId11"/>
+    <sheet name="205130_1" sheetId="78" r:id="rId12"/>
+    <sheet name="205130_2" sheetId="79" r:id="rId13"/>
+    <sheet name="206110" sheetId="75" r:id="rId14"/>
+    <sheet name="206120" sheetId="80" r:id="rId15"/>
+    <sheet name="206131" sheetId="81" r:id="rId16"/>
+    <sheet name="206131_1" sheetId="87" r:id="rId17"/>
+    <sheet name="206131_2" sheetId="86" r:id="rId18"/>
+    <sheet name="206132_choice" sheetId="88" r:id="rId19"/>
+    <sheet name="206132" sheetId="82" r:id="rId20"/>
+    <sheet name="206132_1" sheetId="89" r:id="rId21"/>
+    <sheet name="206132_2" sheetId="90" r:id="rId22"/>
+    <sheet name="206140" sheetId="83" r:id="rId23"/>
+    <sheet name="206140_choice" sheetId="67" r:id="rId24"/>
+    <sheet name="206140_1" sheetId="84" r:id="rId25"/>
+    <sheet name="206140_2" sheetId="85" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,6 +97,191 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7395F610-A414-4359-91F3-A0B7DAFE4B30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{8688AEA9-54AC-4570-A395-152478A2C6A4}">
       <text>
         <r>
@@ -123,7 +309,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -156,7 +342,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -189,7 +375,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -222,7 +408,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -255,7 +441,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -288,7 +474,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -321,7 +507,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -354,7 +540,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -539,39 +725,6 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B6E6522-9FC5-498B-BDD3-6D181F18469A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -611,7 +764,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1795E779-BC5A-4095-A23F-EC9609E7280B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B6E6522-9FC5-498B-BDD3-6D181F18469A}">
       <text>
         <r>
           <rPr>
@@ -644,7 +797,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D1ED847F-B755-4940-983D-67BB4387CC94}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1795E779-BC5A-4095-A23F-EC9609E7280B}">
       <text>
         <r>
           <rPr>
@@ -677,6 +830,39 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D1ED847F-B755-4940-983D-67BB4387CC94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F088B9C0-F3CA-42EF-AF1F-8E415922DBA6}">
       <text>
         <r>
@@ -704,7 +890,7 @@
 </comments>
 </file>
 
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -889,7 +1075,7 @@
 </comments>
 </file>
 
-<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -922,7 +1108,7 @@
 </comments>
 </file>
 
-<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -994,7 +1180,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CF6FE0F-456D-4344-8B34-ADB9555F7A9B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{808852A6-8FE6-4416-BEFE-4BB7393639BC}">
       <text>
         <r>
           <rPr>
@@ -1027,6 +1213,39 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CF6FE0F-456D-4344-8B34-ADB9555F7A9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3EE9B7A6-1572-42BA-8362-E898C932A1B3}">
       <text>
         <r>
@@ -1054,7 +1273,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1239,7 +1458,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1272,7 +1491,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1305,193 +1524,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7395F610-A414-4359-91F3-A0B7DAFE4B30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="441">
   <si>
     <t>이름</t>
   </si>
@@ -3222,6 +3256,10 @@
   </si>
   <si>
     <t>taskContentType</t>
+  </si>
+  <si>
+    <t>205120_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3624,7 +3662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3638,11 +3676,11 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3855,6 +3893,157 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EF6BC-CC1F-4F82-BA6E-F8EA07FAEB7B}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="24.4140625" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF5345-25BA-43AD-A496-F3145A242A44}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3862,11 +4051,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4026,644 +4215,6 @@
       </c>
       <c r="D12" t="s">
         <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
-  <dimension ref="A1:D45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4675,23 +4226,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D026A2-F5F7-4C04-AFAE-2228E10427BD}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4737,101 +4288,95 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4839,13 +4384,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4853,13 +4398,13 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4873,7 +4418,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4887,7 +4432,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4895,13 +4440,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4909,13 +4454,13 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4923,41 +4468,41 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4965,13 +4510,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4985,7 +4530,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4993,13 +4538,13 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5013,7 +4558,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5027,161 +4572,161 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5195,35 +4740,35 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5237,7 +4782,7 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5245,13 +4790,13 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5265,7 +4810,49 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5277,6 +4864,608 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D026A2-F5F7-4C04-AFAE-2228E10427BD}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD8D54-30DB-4585-8738-15F3F2DA6B13}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5284,11 +5473,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5439,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -5447,11 +5636,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5515,7 +5704,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6027,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -6035,11 +6224,11 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6103,7 +6292,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6129,148 +6318,6 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6281,16 +6328,158 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC14C57-8CF5-4830-8632-D1EDE8DB4C56}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6354,7 +6543,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6422,156 +6611,6 @@
       </c>
       <c r="D10" t="s">
         <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6583,151 +6622,145 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
-      <c r="D6" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6746,11 +6779,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="56.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6839,23 +6872,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6902,71 +6935,74 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
       <c r="D6" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6974,157 +7010,13 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7136,21 +7028,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D673B3C-909F-479B-8E0D-2FE787B82E18}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7196,539 +7090,230 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51">
       <c r="D6" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
-      <c r="D6" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>320</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>321</v>
-      </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>320</v>
-      </c>
       <c r="D23" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
       <c r="D26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>319</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>319</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D33" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7739,146 +7324,600 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D673B3C-909F-479B-8E0D-2FE787B82E18}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="D6" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" t="s">
-        <v>315</v>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7890,6 +7929,156 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -7897,11 +8086,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="60.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7965,7 +8154,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8252,18 +8441,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8559,11 +8748,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="56.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8746,23 +8935,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980820C-C133-4122-886E-5F0B3F20A27D}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A56EBB0-90C2-4F21-8C5F-129A22097C09}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="56.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8808,259 +8997,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>400</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>415</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9070,23 +9013,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA67794-A6EC-4E30-9EF4-EA2E136B0828}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980820C-C133-4122-886E-5F0B3F20A27D}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9133,58 +9076,52 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>77</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9192,27 +9129,21 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9226,7 +9157,176 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9237,6 +9337,173 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA67794-A6EC-4E30-9EF4-EA2E136B0828}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3D1CCE-F69E-49C1-BCAD-87AF829B64CF}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9244,13 +9511,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="24.4140625" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9360,7 +9627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -9368,11 +9635,11 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9630,243 +9897,6 @@
       </c>
       <c r="D19" t="s">
         <v>416</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AFCD4D-87D8-453E-9943-560EC8208C09}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9877,152 +9907,238 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EF6BC-CC1F-4F82-BA6E-F8EA07FAEB7B}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AFCD4D-87D8-453E-9943-560EC8208C09}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CAF715-E1F4-4FDA-9731-B47A945BB632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6313859C-48C2-4B62-84A6-1AD18927B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="1580" windowWidth="19200" windowHeight="10060" firstSheet="20" activeTab="26" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="19" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="468">
   <si>
     <t>이름</t>
   </si>
@@ -3397,6 +3397,10 @@
   </si>
   <si>
     <t>Rouin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7213,8 +7217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8995,7 +8999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -9847,8 +9851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980820C-C133-4122-886E-5F0B3F20A27D}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9951,6 +9955,9 @@
       <c r="A8" t="s">
         <v>394</v>
       </c>
+      <c r="C8" t="s">
+        <v>467</v>
+      </c>
       <c r="D8" t="s">
         <v>395</v>
       </c>
@@ -9973,6 +9980,9 @@
       <c r="A10" t="s">
         <v>394</v>
       </c>
+      <c r="C10" t="s">
+        <v>467</v>
+      </c>
       <c r="D10" t="s">
         <v>397</v>
       </c>
@@ -10093,6 +10103,9 @@
       <c r="A19" t="s">
         <v>394</v>
       </c>
+      <c r="C19" t="s">
+        <v>467</v>
+      </c>
       <c r="D19" t="s">
         <v>408</v>
       </c>
@@ -10120,6 +10133,9 @@
       <c r="A22" t="s">
         <v>394</v>
       </c>
+      <c r="C22" t="s">
+        <v>467</v>
+      </c>
       <c r="D22" t="s">
         <v>411</v>
       </c>
@@ -10141,6 +10157,9 @@
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>394</v>
+      </c>
+      <c r="C24" t="s">
+        <v>467</v>
       </c>
       <c r="D24" t="s">
         <v>413</v>
@@ -10462,7 +10481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6313859C-48C2-4B62-84A6-1AD18927B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65B8FF-6CEA-4138-8471-77144AF899B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="19" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="16" activeTab="26" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -128,10 +128,38 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7395F610-A414-4359-91F3-A0B7DAFE4B30}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C6DA0058-8039-42FD-AC15-7247D25644EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7395F610-A414-4359-91F3-A0B7DAFE4B30}">
       <text>
         <r>
           <rPr>
@@ -610,10 +638,48 @@
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FA21AF93-7E94-431A-B9CC-5B6C1B9D7169}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DB3BA3CA-ACD8-423B-9FFE-5ED96E3C3EE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{FA21AF93-7E94-431A-B9CC-5B6C1B9D7169}">
       <text>
         <r>
           <rPr>
@@ -1343,10 +1409,48 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{09E299DD-6248-4899-AADE-430A552C42A8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C70D6BE0-66F2-4D64-8E81-A3C471C29493}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{09E299DD-6248-4899-AADE-430A552C42A8}">
       <text>
         <r>
           <rPr>
@@ -3411,7 +3515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3455,6 +3559,12 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4139,7 +4249,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7217,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7542,7 +7652,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8055,7 +8165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8999,8 +9109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10358,7 +10468,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10482,7 +10592,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Slanted_Structure/Excel2Json/bin/ep02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65B8FF-6CEA-4138-8471-77144AF899B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E48EA-C1A0-9F42-ADB3-5B84F9C38103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="16" activeTab="26" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="14020" firstSheet="12" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -20,26 +20,24 @@
     <sheet name="205120_2" sheetId="93" r:id="rId5"/>
     <sheet name="205120_3" sheetId="77" r:id="rId6"/>
     <sheet name="205121" sheetId="72" r:id="rId7"/>
-    <sheet name="205121_task" sheetId="91" r:id="rId8"/>
-    <sheet name="205121_success" sheetId="53" r:id="rId9"/>
-    <sheet name="205121_fail" sheetId="73" r:id="rId10"/>
-    <sheet name="205130_task" sheetId="92" r:id="rId11"/>
-    <sheet name="205130" sheetId="74" r:id="rId12"/>
-    <sheet name="205130_1" sheetId="78" r:id="rId13"/>
-    <sheet name="205130_2" sheetId="79" r:id="rId14"/>
-    <sheet name="206110" sheetId="75" r:id="rId15"/>
-    <sheet name="206120" sheetId="80" r:id="rId16"/>
-    <sheet name="206131" sheetId="81" r:id="rId17"/>
-    <sheet name="206131_1" sheetId="87" r:id="rId18"/>
-    <sheet name="206131_2" sheetId="86" r:id="rId19"/>
-    <sheet name="206132_choice" sheetId="88" r:id="rId20"/>
-    <sheet name="206132" sheetId="82" r:id="rId21"/>
-    <sheet name="206132_1" sheetId="89" r:id="rId22"/>
-    <sheet name="206132_2" sheetId="90" r:id="rId23"/>
-    <sheet name="206140" sheetId="83" r:id="rId24"/>
-    <sheet name="206140_choice" sheetId="67" r:id="rId25"/>
-    <sheet name="206140_1" sheetId="84" r:id="rId26"/>
-    <sheet name="206140_2" sheetId="85" r:id="rId27"/>
+    <sheet name="205121_success" sheetId="53" r:id="rId8"/>
+    <sheet name="205121_fail" sheetId="73" r:id="rId9"/>
+    <sheet name="205130" sheetId="74" r:id="rId10"/>
+    <sheet name="205130_1" sheetId="78" r:id="rId11"/>
+    <sheet name="205130_2" sheetId="79" r:id="rId12"/>
+    <sheet name="206110" sheetId="75" r:id="rId13"/>
+    <sheet name="206120" sheetId="80" r:id="rId14"/>
+    <sheet name="206131" sheetId="81" r:id="rId15"/>
+    <sheet name="206131_1" sheetId="87" r:id="rId16"/>
+    <sheet name="206131_2" sheetId="86" r:id="rId17"/>
+    <sheet name="206132_choice" sheetId="88" r:id="rId18"/>
+    <sheet name="206132" sheetId="82" r:id="rId19"/>
+    <sheet name="206132_1" sheetId="89" r:id="rId20"/>
+    <sheet name="206132_2" sheetId="90" r:id="rId21"/>
+    <sheet name="206140" sheetId="83" r:id="rId22"/>
+    <sheet name="206140_choice" sheetId="67" r:id="rId23"/>
+    <sheet name="206140_1" sheetId="84" r:id="rId24"/>
+    <sheet name="206140_2" sheetId="85" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,7 +96,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5F70113D-2EF4-4B4E-8B85-85F31F765140}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{8688AEA9-54AC-4570-A395-152478A2C6A4}">
       <text>
         <r>
           <rPr>
@@ -128,11 +126,10 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C6DA0058-8039-42FD-AC15-7247D25644EF}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F7459D23-A533-4859-B3A0-9C39ED304643}">
       <text>
         <r>
           <rPr>
@@ -142,195 +139,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7395F610-A414-4359-91F3-A0B7DAFE4B30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -344,7 +162,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{8688AEA9-54AC-4570-A395-152478A2C6A4}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BE6B53E-F4BD-4906-BF41-CD3E6D458D63}">
       <text>
         <r>
           <rPr>
@@ -377,7 +195,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F7459D23-A533-4859-B3A0-9C39ED304643}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{34C737A6-DED6-404B-AE59-94E72931C88D}">
       <text>
         <r>
           <rPr>
@@ -410,7 +228,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BE6B53E-F4BD-4906-BF41-CD3E6D458D63}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C5C9D4B-3342-45BE-9D8E-0E93FFF5F0F9}">
       <text>
         <r>
           <rPr>
@@ -443,7 +261,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{34C737A6-DED6-404B-AE59-94E72931C88D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{604C98B0-87E5-4FA4-9718-FDA9DD73DDF0}">
       <text>
         <r>
           <rPr>
@@ -476,7 +294,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C5C9D4B-3342-45BE-9D8E-0E93FFF5F0F9}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E8DB0ED2-91FC-4F6D-BA25-59A8D5ACFD16}">
       <text>
         <r>
           <rPr>
@@ -509,7 +327,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{604C98B0-87E5-4FA4-9718-FDA9DD73DDF0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DE873A67-23AE-4276-9CF4-2100E7FA6986}">
       <text>
         <r>
           <rPr>
@@ -537,105 +355,6 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E8DB0ED2-91FC-4F6D-BA25-59A8D5ACFD16}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DE873A67-23AE-4276-9CF4-2100E7FA6986}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70EB8DCF-2FEC-4C0A-9DFE-AE31FDB9807B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -858,7 +577,7 @@
 </comments>
 </file>
 
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -891,7 +610,40 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70EB8DCF-2FEC-4C0A-9DFE-AE31FDB9807B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -924,7 +676,7 @@
 </comments>
 </file>
 
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -957,7 +709,7 @@
 </comments>
 </file>
 
-<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -990,7 +742,7 @@
 </comments>
 </file>
 
-<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1175,7 +927,7 @@
 </comments>
 </file>
 
-<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1187,20 +939,110 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t xml:space="preserve">0: Idle
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: Laugh
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: Sad
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: Cry
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: Angry
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: Surprise
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: Panic
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7: Suspicion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8: Fear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1208,7 +1050,7 @@
 </comments>
 </file>
 
-<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1409,229 +1251,6 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C70D6BE0-66F2-4D64-8E81-A3C471C29493}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{09E299DD-6248-4899-AADE-430A552C42A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -1662,8 +1281,41 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5F70113D-2EF4-4B4E-8B85-85F31F765140}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="458">
   <si>
     <t>이름</t>
   </si>
@@ -3348,45 +3000,6 @@
   </si>
   <si>
     <t>라우는 오늘은 오운을 보기로 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205121_task</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/205121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/205121_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/205121_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coin Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205130_task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/205130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dove Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/205130_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/205130_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3515,7 +3128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3563,6 +3176,13 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -3928,11 +3548,11 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4008,394 +3628,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AFCD4D-87D8-453E-9943-560EC8208C09}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EF6BC-CC1F-4F82-BA6E-F8EA07FAEB7B}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.4140625" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF5345-25BA-43AD-A496-F3145A242A44}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4403,11 +3635,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4471,7 +3703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4567,6 +3799,1246 @@
       </c>
       <c r="D12" t="s">
         <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D026A2-F5F7-4C04-AFAE-2228E10427BD}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4578,1246 +5050,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
-  <dimension ref="A1:D45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D026A2-F5F7-4C04-AFAE-2228E10427BD}">
-  <dimension ref="A1:D42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD8D54-30DB-4585-8738-15F3F2DA6B13}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5825,11 +5057,11 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5884,7 +5116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5971,6 +5203,846 @@
       </c>
       <c r="D12" t="s">
         <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>456</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>456</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>455</v>
+      </c>
+      <c r="D41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>455</v>
+      </c>
+      <c r="D47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>454</v>
+      </c>
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5981,23 +6053,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6043,6 +6113,148 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC14C57-8CF5-4830-8632-D1EDE8DB4C56}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6053,45 +6265,63 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6099,606 +6329,13 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>464</v>
-      </c>
-      <c r="D12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>464</v>
-      </c>
-      <c r="D18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>466</v>
-      </c>
-      <c r="D20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>465</v>
-      </c>
-      <c r="D25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>466</v>
-      </c>
-      <c r="D26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>465</v>
-      </c>
-      <c r="D28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>466</v>
-      </c>
-      <c r="D29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>465</v>
-      </c>
-      <c r="D30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>464</v>
-      </c>
-      <c r="D31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>466</v>
-      </c>
-      <c r="D32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>465</v>
-      </c>
-      <c r="D36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="D37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>466</v>
-      </c>
-      <c r="D39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>464</v>
-      </c>
-      <c r="D40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>465</v>
-      </c>
-      <c r="D41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>464</v>
-      </c>
-      <c r="D44" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>465</v>
-      </c>
-      <c r="D47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6709,24 +6346,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
-  <dimension ref="A1:D7"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6772,338 +6559,107 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
       <c r="D6" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>452</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC14C57-8CF5-4830-8632-D1EDE8DB4C56}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7122,16 +6678,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7324,145 +6880,322 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54">
+      <c r="D6" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7474,23 +7207,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D673B3C-909F-479B-8E0D-2FE787B82E18}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7536,135 +7269,148 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>462</v>
-      </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>263</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>418</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7711,259 +7457,363 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
       <c r="D6" s="3" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>320</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>318</v>
+      </c>
       <c r="B23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7975,613 +7825,145 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D673B3C-909F-479B-8E0D-2FE787B82E18}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="D6" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>323</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>318</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>319</v>
-      </c>
-      <c r="D27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D32" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" t="s">
-        <v>347</v>
+        <v>189</v>
+      </c>
+      <c r="E8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8592,168 +7974,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8818,7 +8050,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9105,7 +8337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -9113,10 +8345,10 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9181,7 +8413,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9412,11 +8644,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9480,7 +8712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9512,11 +8744,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9580,7 +8812,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9646,7 +8878,7 @@
         <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
         <v>389</v>
@@ -9709,16 +8941,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9765,77 +8997,77 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9849,7 +9081,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9863,7 +9095,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9877,7 +9109,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9891,35 +9123,35 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" t="s">
         <v>445</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>462</v>
-      </c>
-      <c r="D15" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9933,7 +9165,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9947,7 +9179,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -9965,16 +9197,16 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10033,7 +9265,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10066,7 +9298,7 @@
         <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
         <v>395</v>
@@ -10091,7 +9323,7 @@
         <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D10" t="s">
         <v>397</v>
@@ -10214,7 +9446,7 @@
         <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
         <v>408</v>
@@ -10244,7 +9476,7 @@
         <v>394</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D22" t="s">
         <v>411</v>
@@ -10269,7 +9501,7 @@
         <v>394</v>
       </c>
       <c r="C24" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D24" t="s">
         <v>413</v>
@@ -10304,11 +9536,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10372,7 +9604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10464,130 +9696,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3D1CCE-F69E-49C1-BCAD-87AF829B64CF}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.4140625" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -10595,11 +9703,11 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10663,7 +9771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10857,6 +9965,243 @@
       </c>
       <c r="D19" t="s">
         <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AFCD4D-87D8-453E-9943-560EC8208C09}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Slanted_Structure/Excel2Json/bin/ep02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E48EA-C1A0-9F42-ADB3-5B84F9C38103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5026F8E4-098F-46B2-B33A-D95EBA575329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="14020" firstSheet="12" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="7" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="205110" sheetId="50" r:id="rId1"/>
@@ -3548,7 +3548,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -3631,11 +3631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF5345-25BA-43AD-A496-F3145A242A44}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -3703,7 +3703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3817,7 +3817,7 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -3879,7 +3879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4455,7 +4455,7 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -4523,7 +4523,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5057,7 +5057,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -5116,7 +5116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5220,7 +5220,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -5288,7 +5288,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5949,7 +5949,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6017,7 +6017,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6058,7 +6058,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6117,7 +6117,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6200,7 +6200,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6268,7 +6268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6354,7 +6354,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -6504,7 +6504,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6563,7 +6563,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="D6" s="3" t="s">
         <v>262</v>
       </c>
@@ -6678,7 +6678,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6887,7 +6887,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6946,7 +6946,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54">
+    <row r="6" spans="1:4" ht="51">
       <c r="D6" s="3" t="s">
         <v>279</v>
       </c>
@@ -7214,7 +7214,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -7282,7 +7282,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -7401,7 +7401,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -7460,7 +7460,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="D6" s="3" t="s">
         <v>316</v>
       </c>
@@ -7832,7 +7832,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -7982,7 +7982,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8050,7 +8050,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8341,11 +8341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8413,7 +8413,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8644,7 +8644,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8712,7 +8712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8744,7 +8744,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8812,7 +8812,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8941,7 +8941,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -9009,7 +9009,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>432</v>
       </c>
@@ -9197,7 +9197,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -9265,7 +9265,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9536,7 +9536,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -9604,7 +9604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9703,7 +9703,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -9771,7 +9771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9979,10 +9979,10 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -10050,7 +10050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>

--- a/Excel2Json/bin/ep02/ep02_4.xlsx
+++ b/Excel2Json/bin/ep02/ep02_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5026F8E4-098F-46B2-B33A-D95EBA575329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083FB93-1DA1-4A25-A6FA-01EA8B6E07C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="7" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -24,20 +24,22 @@
     <sheet name="205121_fail" sheetId="73" r:id="rId9"/>
     <sheet name="205130" sheetId="74" r:id="rId10"/>
     <sheet name="205130_1" sheetId="78" r:id="rId11"/>
-    <sheet name="205130_2" sheetId="79" r:id="rId12"/>
-    <sheet name="206110" sheetId="75" r:id="rId13"/>
-    <sheet name="206120" sheetId="80" r:id="rId14"/>
-    <sheet name="206131" sheetId="81" r:id="rId15"/>
-    <sheet name="206131_1" sheetId="87" r:id="rId16"/>
-    <sheet name="206131_2" sheetId="86" r:id="rId17"/>
-    <sheet name="206132_choice" sheetId="88" r:id="rId18"/>
-    <sheet name="206132" sheetId="82" r:id="rId19"/>
-    <sheet name="206132_1" sheetId="89" r:id="rId20"/>
-    <sheet name="206132_2" sheetId="90" r:id="rId21"/>
-    <sheet name="206140" sheetId="83" r:id="rId22"/>
-    <sheet name="206140_choice" sheetId="67" r:id="rId23"/>
-    <sheet name="206140_1" sheetId="84" r:id="rId24"/>
-    <sheet name="206140_2" sheetId="85" r:id="rId25"/>
+    <sheet name="205130_2" sheetId="95" r:id="rId12"/>
+    <sheet name="205130_3" sheetId="96" r:id="rId13"/>
+    <sheet name="205130_4" sheetId="79" r:id="rId14"/>
+    <sheet name="206110" sheetId="75" r:id="rId15"/>
+    <sheet name="206120" sheetId="80" r:id="rId16"/>
+    <sheet name="206131" sheetId="81" r:id="rId17"/>
+    <sheet name="206131_1" sheetId="87" r:id="rId18"/>
+    <sheet name="206131_2" sheetId="86" r:id="rId19"/>
+    <sheet name="206132_choice" sheetId="88" r:id="rId20"/>
+    <sheet name="206132" sheetId="82" r:id="rId21"/>
+    <sheet name="206132_1" sheetId="89" r:id="rId22"/>
+    <sheet name="206132_2" sheetId="90" r:id="rId23"/>
+    <sheet name="206140" sheetId="83" r:id="rId24"/>
+    <sheet name="206140_choice" sheetId="67" r:id="rId25"/>
+    <sheet name="206140_1" sheetId="84" r:id="rId26"/>
+    <sheet name="206140_2" sheetId="85" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,7 +164,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BE6B53E-F4BD-4906-BF41-CD3E6D458D63}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BA12DE9-F205-4749-9C1E-B4755B299DC8}">
       <text>
         <r>
           <rPr>
@@ -195,7 +197,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{34C737A6-DED6-404B-AE59-94E72931C88D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C7D249C8-3DA1-4996-854B-B43E6CF20E30}">
       <text>
         <r>
           <rPr>
@@ -228,7 +230,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C5C9D4B-3342-45BE-9D8E-0E93FFF5F0F9}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BE6B53E-F4BD-4906-BF41-CD3E6D458D63}">
       <text>
         <r>
           <rPr>
@@ -261,7 +263,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{604C98B0-87E5-4FA4-9718-FDA9DD73DDF0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{34C737A6-DED6-404B-AE59-94E72931C88D}">
       <text>
         <r>
           <rPr>
@@ -294,7 +296,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E8DB0ED2-91FC-4F6D-BA25-59A8D5ACFD16}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C5C9D4B-3342-45BE-9D8E-0E93FFF5F0F9}">
       <text>
         <r>
           <rPr>
@@ -327,6 +329,72 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{604C98B0-87E5-4FA4-9718-FDA9DD73DDF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E8DB0ED2-91FC-4F6D-BA25-59A8D5ACFD16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DE873A67-23AE-4276-9CF4-2100E7FA6986}">
       <text>
         <r>
@@ -354,7 +422,40 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70EB8DCF-2FEC-4C0A-9DFE-AE31FDB9807B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -577,7 +678,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -610,40 +711,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70EB8DCF-2FEC-4C0A-9DFE-AE31FDB9807B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -676,7 +744,7 @@
 </comments>
 </file>
 
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -709,7 +777,7 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -742,7 +810,7 @@
 </comments>
 </file>
 
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -927,7 +995,7 @@
 </comments>
 </file>
 
-<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1050,7 +1118,7 @@
 </comments>
 </file>
 
-<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -1315,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="459">
   <si>
     <t>이름</t>
   </si>
@@ -1685,10 +1753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>둘은 하하호호 거리며 즐겁게 이야기를 나누고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아 근데 우리 둘다 대학생이면 또래인거 같은데 말 놓을까…요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1812,10 +1876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오오…신입부원 모집하려고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>응응. 인권동아리가 있는지도 모르는 경우가 많으니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1848,1276 +1908,1286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>비둘기들 잘 먹네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들이 별로 안와서 그런지 다들 여기로 몰려드는 것 같네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 괜찮아…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 있으면 상관없는데 좀 많으니까 무섭네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…얘네 내쫒을까..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 아냐…얘네도 배고플텐데 뭐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 정말 착하구나. 그치 얘네가 해치진 않을꺼야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 어머니가 너 동아리 활동하는 건 아셔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼~내가 회장이라고 하니까 기뻐하셨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오올…회장님~멋져요~ 유후~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 회장이라고 별 다를 건 없어~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겸손까지 갖추신 최고의 회장님, 호!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잇! 그만해~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크, 알겠어 알겠어~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니는 네모마을 가셔서 뭐하고 계셔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니도 원래 사업가신데 네모마을 가고 나서는 자선사업 같은거 하시고 계셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…멋지다…주로 누굴 대상으로 하셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…내가 알기론 네모마을로 도망친 성매매 여성들을 돕는다고 하신 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉! 대단한 일 하시네….멋지시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까.. 쉬운 일이 아닐 텐데 말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까… 반발하는 사람도 분명히 있을 거 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 그리고 말 나온 김에 하는 말인데, 성매매가 아니라 성착취라고 써야할 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 몰랐어… 미안… 나는 그렇게 알고 있었거든…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제부터 알면 되니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 나도 어머니처럼 사람들을 돕는 사업을 하고 싶어. 아마 아버지랑 크게 싸울 것 같지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 하고 싶은 걸 해야지! 남에게 떠밀려서 해봤자 후회밖에 안남을테니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아..근데 아버지와 맞서야 된다는 건 좀 많이 두려워…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…아버지가 많이 엄하신가 보구나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…응…어렸을 때부터 엄했거든…성인이 된 이후에도 내가 하는 것들을 다 맘에 안들어 하시는 것 같고 말이지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 힘들겠다…그래도 난 너가 이겨낼 수 있다고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋게 봐줘서 고마워…그럴 수 있으면 좋을 텐데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 아버지가 맘에 안들어 하신다 해도 꿋꿋히 하고 있기도 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 진심으로 이겨낼 수 있을거라고 생각한거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우…고마워 진심으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 꼭 나올거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지! 내일도 학교 앞으로 갈께!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응! 애들이 다 반가워 할거야! 나도 그렇고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 앞에 오운이 서있다. 라우를 기다리는 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우 언제즈음 오려나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 떄 멀리서 라우가 다가온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운! 나왔어! 많이 안 늦었지??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응 나도 방금 나왔어! 오느라 고생많았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐아냐! 그렇게 멀지도 않고 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저번엔 학교 앞만 봤는데 이번엔 학교 안으로 들어가볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 동아리방으로 가자! 애들이 너 기다리고 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206120</t>
+  </si>
+  <si>
+    <t>206110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜로. 지금도 너가 하고 싶은 걸 하려고 동아리 까지 직접 먼저 만들었잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206131</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206140_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206140_1</t>
+  </si>
+  <si>
+    <t>206140_2</t>
+  </si>
+  <si>
+    <t>우와! 너네 동아리방 시설 좋다! 깔끔하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 막상 근데 우리 학교 동아리방에서 제일 좁고 안 좋은 편인걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 사립 명문학교 답다는 생각을 하는 라우였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 오운, 너가 저번에 말했던 친구야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 방에 있던 3명의 학생이 있다는 걸 조금 무서워 보이는 학생의 말을 듣고 늦게나마 눈치를 챘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어~라우! 인사해! 다 우리 동아리 친구들이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 원마을에서 온 라우라고 합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…타지인을 볼 기회가 거의 없었는데…반가워요. 저는 리카라고 해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말편하게 해! 난 브린이고 정치외교학과야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 학과도 말해야 되나? 나는 컴공이야. 해킹 쪽으로 전문으로 하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와…저도 공대생이지만 해커라니 멋져요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 공대생이구나? 어디?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 기계공이요! 아직 진로는 모르겠지만요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…다들 내가 여기 있으면 왜 여깄냐고 하는데 너는 그런 말을 안하는 구나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 리카가 비록 수석입학을 했다해도 뭐 너같은 인재가 여기에 왜 있냐라는 말은 하도 해서 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 자기가 원하는 동아리 들어가겠다는 데 그걸로 뭐라하는 사람들이 이상한거죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반가워요. 저는 루인이라고 합니다. 저는 사회학과에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 반가워요! 뭔가 다양한 사람들과 만나게 되서 좋네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 좋은 친구들이야! 그래서 소개해주고 싶었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실없는 말은..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이…리카 좋으면서~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 빈말하는 친구는 아니니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 평소에도 이렇게 자주 동아리 방에 있으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨날은 아니어도 매주 만나긴 하는데 그게 딱 오늘이었지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 오운이랑 같이 동아리 홍보 포스터를 붙이고 다니려고 모였어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하필 오늘 바쁜 날에 만나서 아쉽다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝나고 얘기하면 되지 뭐. 워낙 다들 시간 내기 바빠서말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라고, 가장 바쁘신 분이 말씀하셨네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요! 끝나고도 더 얘기하면 되니까요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우 미안…애들이 되는 시간이 이날 밖에 없어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~말 진짜 이쁘게 한다! 난 라우 맘에 들어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 다들 성격이 완전 다른데 뭔가 왁자지껄하다는 기분을 느꼈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자자, 일단 사담은 끝나고 해보자고! 오늘 각자 어딜 담당할 지는 알지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 근데 오운 너가 담당한 데가 좀 많던데 괜찮겠어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우랑 같이 가면 되겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…오자마자 부려먹기 위한 계획이셨군여 회장님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하…항상 이런 식으로 뭔가 도움 받는 기분이네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인이 너 혼자 하기엔 양이 많다며~ 같이 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 라우..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 학교 밖에 있는 게시판에다 홍보 포스터를 붙이러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이 또 뭘 미안해 하고 있어! 이미 난 괜찮다고 했잖아! 학교도 구경할겸!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥???그런건 아니야…물론 도와주기로는 했지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 내가 그냥 돕는다고 했어! 학교도 구경하고 좋지 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…좀 귀찮겠지만 잘 좀 부탁할께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 혼자서 동아리 방에 있는 것보다 낫지! 그치 오운?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇지만..괜히 미안한걸…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운, 라우가 괜찮다잖아! 그리고 손님 초대해놓고 혼자 덩그러니 두는 것도 예의가 아닌 것 같다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 어차피 해야할 일인거 빨리 갔다와서 놀자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 이제 학교 이곳 저곳에 있는 학교 게시판에다가 홍보 게시물을 붙일 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길을 가다가 보이는 게시판이 보이면 거기다가 붙이면 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 어려울 것도 없네! 금방 후딱 해치워 버리자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 앞에 갔더니 찢어진 포스터가 눈에 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런…누가 또 찢어버렸네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 무슨 일이야? 한두번이 아니야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응… 누군지 모르겠지만 가끔 이런 식으로 찢어버리는 사람들이 있더라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런…잡히기만 해봐라 아주 그냥…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 괜찮아.. 새로 붙이면 되지. 얼른 붙이자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 여기도 찢어져 있잖아??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라…그러게…? 이렇게 연속적으로 찢어진 걸 본 적은 없는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 일부러 찾아서 찢는게 분명해…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서….설마…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 할 짓없는 애들이 이런 짓을 하는 거지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판에 다가갔더니 뭔가 껄렁해보이는 학생들이 낄낄 거리고 있었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그 옆에는 동아리 포스터가 찢어져 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206132_choice</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/206132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206132_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/206132_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큭큭 진짜 얘들은 징하지도 않냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지들은 아주 PC한 척하는 거 꼴도 보기 싫어 죽겠어 진짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까~정의로운 척하는거 진짜 헛구역질 난다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가봐도 오운의 동아리를 욕하는 말들이었다,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 본 라우는 이를 꽉 물며 나서려고 하는 순간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(작은 목소리로)그냥 모른 척 하고 지나가자…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무리 봐도 앞으로 계속 이럴 것 같은데… 어쩌지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 저들을 무서워 한다기 보단 괜히 갈등에 휩쓸리고 싶지 않은 것 처럼 보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이대로 보고만 있으면 앞으로도 오운 동아리의 노력이 비웃음을 살 것이라는 생각이 들었고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것만은 오운의 친구로서 참지 못할 것 같았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 성큼 성큼 그들에게 다가갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥..? 뭐야 원인이 왜 여기 있지, 유학생인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아뇨, 당신들이 하는 얘기 다 들었어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 라우의 뒤를 힐끔 쳐다보더니 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~귀하신 회장님의 친구시구나~?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐고, 당신들 이런 짓하는거 쪽팔린 줄 알아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음에 들든 안 들든 이런 짓하는게 퍽이나 교양 넘치는 짓이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 스스로 인지부조화오니까 그러는 것 같은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스스로들이 할 짓 없이 이런 식으로 열등감 없애는 짓하는 것로 밖에 안보이거든요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 짓 할 시간에 잠이나 자러 가버리던가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 라우의 말에 어버버 거리는 표정을 짓고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저리 비켜요, 당신들이 찢은 포스터에 다시 붙일거니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳇…지들이 잘난 줄 알지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 꿍얼거리면서 자리를 비켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우…대단하다…나라면 절대 못했을거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런 애들은 스스로 쪽팔린 줄 알아야해. 그냥 나는 내 할 일을 했을 뿐이야. 얼른 포스터 붙이자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(외부인인 내가 괜히 끼어들어봤자 오운에게 피해갈 것 같아…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아…다음에 붙이면 되지…이번엔 그냥 지나가자…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 오운에 말에 수긍하면서 그냥 지나치기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들을 지나치자 그들은 오운을 알아보고 아는 척을 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어~ 오운 회장님~ 여기 종이가 찢어져 있던데??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…다음에 붙일 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에도 찢어져 있을텐데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 학생들은 키득거리며 오운을 비웃었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저것들이…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아 라우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 별다른 대응을 하지 못하고 포스터를 교체하지도 못한 채 지나갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,m3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 포스터를 붙이고 오고 나서 신나게 저녁 떄 까지 이야기의 꽃을 피웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 각자 약속이 있던 리카, 루인, 브린은 먼저 나갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 라우와 오운 둘이서만 동아리 방에 남았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 많이 힘들었지? 고생많았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥? 아냐~ 나야 너네 학교 구경도 하고 또 애들이랑 얘기할 수 있어서 너무 재밌었어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분이야! 고마워 오운!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 다행이야. 너도 느꼈겠지만 다들 좋은 친구들이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 활동하면서 여러 갈등들이 있을 때 마다 저 친구들이 있었기에 잘 이겨낼 수 있었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇, 혹시 아까 처럼 그런 경우가 많았던 거야? 또 어떤 갈등이 있었는데..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음… 예전에 성소수자 인권 관련해서 현수막을 달았는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 매번 누가 현수막을 찢어버리는 거야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 할 짓도 없나, 왜 그런 짓을 하는거야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 만약 평소의 나라면 안절부절 했을 텐데, 친구들이 참지 않고 잠복해서 결국 범인을 잡을 수 있었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 친구들이네 정말. 그리고 계속 너를 깎아 내리지만, 너도 강단 있다고 생각해 난.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에? 내가? 아냐.. 내가 무슨…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 애들이 괜히 너를 믿고 따르는게 아니라고 생각해. 보면 은근 할 건 다 하고 다니는 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남들의 시선이 어떠하든 간에 결국 너가 하고자 하는 바를 이루려고 하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 처음에 너가 소심한 것 같았는데 지금은 외유내강인 거 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…아냐…내가 뭐라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 회장님… 와…나타나네… 최고의 회장님, 호!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잇, 진짜! 놀리지마!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 깔깔 거리면서 이야기를 나누다 오운이 진지한 이야기를 꺼내기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비록 내가 하고 싶어서 한거지만, 가끔 스스로 이게 맞나 싶을 떄가 있기도 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라?? 왜?? 뭐 떄문에…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운은 잠시 생각에 잠기다 잠시후 이야기를 꺼냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가끔 당사자성이 없는 다른 사람의 인권을 챙기려고 할 때, 떄로 당사자들에게 비판 받을 때가 있거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 그게 가끔 두렵더라고… 사실 그들 입장에서는 기만이라고 느껴질 수 있을 거라고 생각이 들더라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 내가 하는 것들이 과연 그들을 돕는 것이 맞을까라는 생각이 들 때가 있어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운의 진지한 생각에 대해서 나는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽하지 못하더라도 가만히 방관하는 것보다 낫다고 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 누군가의 인권을 챙긴다는 것은 좀 허황된 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐든 양면의 칼날이 있듯이, 예상치 못한 리스크는 따르는 게 아닐까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특히 인권은 정말 어려운 문제잖아. 그래서 사실 대부분 사람들이 외면하기도 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다들 외면하는 와중에 누군가가 바라봐준 다는 것 만으로도 나는 큰 의미가 있다고 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 그 과정에서 완벽하진 못하더라도, 가장 중요한 것은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 좋은 영향을 끼치기 위해 노력하겠다는 자세니까 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 너무 걱정안해도 될 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 그런 생각을 가지고 스스로 고찰하고 있다는 것 만으로도 큰 의미가 있다고 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 그들에게 실수하게 된다면 책임을 지고 고치고 더 나아지면 되는 거니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응….라우 너말이 맞아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각해보니 나는 이제까지 완벽해야 된다는 강박 관념에 갇혀있던거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴 수 있지. 하지만 완벽한 건 사실 불가능하다고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무래도 당사자가 아닌이상, 완벽하게 그들의 입장을 이해할 수 없잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇기에 더더욱 조심해야 되는 건 맞지. 하지만 완벽하지 못한다는 사실에 스트레스 받을 필요는 없을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한 건 너가 어떤 자세로 어떤 영향으로 어떤 변화를 일으키고 싶은지니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 내가 어떤 자세로 인권 운동에 임해야 할지 감을 잡은 것 같아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스스로 타박하기 보단, 적어도 방관하지 않는 자신에게 잘했다고 말해주는게 좋지 않을까 싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응…이제것 나는 나를 탓하고 자책하기만 했던 것 같아… 그래도 자만하지 않으려고 노력해야겠지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇지. 항상 조심해야 되는 거라고 생각해. 그렇지만 자책은 하지 말자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응! 고마워 라우. 널 만난 건 내 인생의 큰 행운인 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 그렇게 까지야…하핫! 도움이 되었다면 다행이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 사실 남이 뭐라고 감히 남의 인권을 왈가왈부 할 수 있나 싶어서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 너가 고생하고 있는건 알지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 남인 이상, 완벽하게 남의 인권을 챙긴다는 건 말도 안되는 거지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…애초에…남이 누군가의 인권을 챙긴다는 게 말이 안되지 않나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너말대로 당사자가 보기엔 기만으로 보일 수 있다고 생각해 나도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 아예 무관심한 것 보다는 낫지만…완벽하게 모든 인권을 챙기는 건 말이 안된다는 게 내 생각이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 너무 머리 아프게 생각하지마. 그냥 안하는 것보단 낫다고 간단하게 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국은 그런 건가….어쩔 수 없는 걸까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(유독 오운의 표정이 이제것 봤던 표정 중에서 가장 슬퍼 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하지만 현실은 현실이다. 현실을 인지할 필요가 있다고 생각하니까.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사람들이 모여있는 곳이 보인다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어떤 한 사람이 버스킹을 하는 것 처럼 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 버스킹 하는 것 같은데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 버스킹 하는 사람들 종종 보이더라고요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오!! 재밌겠다! 구경해요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 기대했던 것과 달리 버스킹하는 남자는 자신감만 넘치고 실력은 영 꽝이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나가던 시민1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야.. 시끄럽게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(괜히 내가 다 민망하네…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하핫…그래도 멋지다고 생각해요…남들 앞에서 서서 자신을 보인다는 건 저는 못해요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴 그렇게 생각하면 대단하면서, 또 그 자신감이 대단하다는 생각이 들기도 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 이 동상 우리 마을에도 있는데!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 맞습니다. 잘 아시네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…깜짝아.. 안녕하세요….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 이 공원은 세 마을의 화합을 위해 만들어진 공원이에요. 그래서 아마 다른 마을에 있는 공원에도 동상이 있을 겁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 그래서 우리 마을 공원에도 있었구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 기억 속에는 이 동상이 원마을, 세모마을, 네모마을의 화합을 의미했던 거라고 기억하는데… 맞나..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 사실상 마을간 교류가 거의 없다시피 하잖아요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사실 오운의 말이 맞긴 하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 세모마을로 여행을 간다 했을 때 많은 사람들이 말리긴 했었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(옛날에는 교류가 활발했지만, 각 마을이 가지고 있는 차이가 갈등을 일으켰고 현재는 최소한으로 필요한 것들만 교류한다고 들었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원마을은 종종 원인이 아닌 사람이 있는데, 듣기론 세모마을에는 없다고 들었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아마…세모마을에 뭔가 있는 것이겠지…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 다른 마을을 한번 가보고 싶은데 기회가 쉽게 나지 않네요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 지금 이쪽에 계신 원인을 처음 뵐 정도로 다른 마을 사람들을 볼일이 없긴 했네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴 거면 이 동상과 공원을 세운 의미가 뭘까요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 오운의 말에 숙연해졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…그래도 아예 없는 것보단 조금의 희망이 있지 않을까요..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아요! 그래도 저도 이렇게 세모마을에 여행왔고… 불가능한 건 아니니까요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 말씀입니다. 편히 공원 잘 구경하시고 무슨 일이 있으면 저에게 말씀해주시면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 감사합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하, 농담이에요 농담!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206131_1</t>
+  </si>
+  <si>
+    <t>206131_2</t>
+  </si>
+  <si>
+    <t>206132_1</t>
+  </si>
+  <si>
+    <t>206132_2</t>
+  </si>
+  <si>
+    <t>206132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없는 거지 뭐… 조금은 허황된 걸 하고 있는 거일 수도 있고. 누군가의 인권을 챙긴다는 것이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다고 뭐 너의 노력이 헛되지는 않다고 생각해. 아까도 말했지만 가만히 있는 것보단 나으니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭔가 어색해진 것 같지만 내 기분 탓이겠지…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 둘은 이도 저도 아닌 상태로 이야기가 끝나게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 오늘은 오운을 보기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
+    <t>205120_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205110_Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 쟤 봐봐, 어딘가 낯이 익은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량한 여학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 쟤 걔잖아. 인권동아리 로아 회장.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량한 남학생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량한 남학생2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆에는 우리 마을 사람 아닌데? 원인이네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큭큭, 혼혈이랑 외지인의 조합이라, 어울리네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 미친ㅋㅋㅋㅋ 그러네? 쟤 혼혈이었지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운과 같은 교복을 입었지만 오운에 대해 굉장히 적대적인 학생들을 만났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,m1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운씨…저분들 나름 오운씨랑 같은 학교 아니에요…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…제가 혼혈에 인권동아리 한다는 거가 일부 학생들이 부정적으로 보더라고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네??? 왜죠???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 여러모로 고까워 보이는 게 아닐까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이~로아 회장~ 원인 끼고 구경시켜주는 거야? 착하네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜, 그만해 정말ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 이렇게 무례하죠? 이 사람들을 정말,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참아요 라우씨. 괜히 밖에서 문제일으켜봤자 좋을게 없어요. 자, 빨리 가요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205120_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Student_M</t>
+  </si>
+  <si>
+    <t>NPC_Student_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Student_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rouin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오…신입부원 모집하려고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>205130_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비둘기들 잘 먹네~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람들이 별로 안와서 그런지 다들 여기로 몰려드는 것 같네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라? 괜찮아…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 있으면 상관없는데 좀 많으니까 무섭네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗…얘네 내쫒을까..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 아냐…얘네도 배고플텐데 뭐…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운은 정말 착하구나. 그치 얘네가 해치진 않을꺼야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 어머니가 너 동아리 활동하는 건 아셔?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼~내가 회장이라고 하니까 기뻐하셨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오올…회장님~멋져요~ 유후~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 회장이라고 별 다를 건 없어~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>겸손까지 갖추신 최고의 회장님, 호!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아잇! 그만해~~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크크, 알겠어 알겠어~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어머니는 네모마을 가셔서 뭐하고 계셔?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어머니도 원래 사업가신데 네모마을 가고 나서는 자선사업 같은거 하시고 계셔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오오…멋지다…주로 누굴 대상으로 하셔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음…내가 알기론 네모마을로 도망친 성매매 여성들을 돕는다고 하신 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헉! 대단한 일 하시네….멋지시다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그니까.. 쉬운 일이 아닐 텐데 말이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그니까… 반발하는 사람도 분명히 있을 거 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 그리고 말 나온 김에 하는 말인데, 성매매가 아니라 성착취라고 써야할 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗, 몰랐어… 미안… 나는 그렇게 알고 있었거든…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제부터 알면 되니까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무튼 나도 어머니처럼 사람들을 돕는 사업을 하고 싶어. 아마 아버지랑 크게 싸울 것 같지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너가 하고 싶은 걸 해야지! 남에게 떠밀려서 해봤자 후회밖에 안남을테니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아..근데 아버지와 맞서야 된다는 건 좀 많이 두려워…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…아버지가 많이 엄하신가 보구나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…응…어렸을 때부터 엄했거든…성인이 된 이후에도 내가 하는 것들을 다 맘에 안들어 하시는 것 같고 말이지..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많이 힘들겠다…그래도 난 너가 이겨낼 수 있다고 생각해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋게 봐줘서 고마워…그럴 수 있으면 좋을 텐데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 아버지가 맘에 안들어 하신다 해도 꿋꿋히 하고 있기도 하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러니까 진심으로 이겨낼 수 있을거라고 생각한거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우…고마워 진심으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일 꼭 나올거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당연하지! 내일도 학교 앞으로 갈께!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응! 애들이 다 반가워 할거야! 나도 그렇고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 앞에 오운이 서있다. 라우를 기다리는 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우 언제즈음 오려나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 떄 멀리서 라우가 다가온다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운! 나왔어! 많이 안 늦었지??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응응 나도 방금 나왔어! 오느라 고생많았어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐아냐! 그렇게 멀지도 않고 뭐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저번엔 학교 앞만 봤는데 이번엔 학교 안으로 들어가볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 동아리방으로 가자! 애들이 너 기다리고 있어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206120</t>
-  </si>
-  <si>
-    <t>206110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐, 진짜로. 지금도 너가 하고 싶은 걸 하려고 동아리 까지 직접 먼저 만들었잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206131</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206140_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206140_1</t>
-  </si>
-  <si>
-    <t>206140_2</t>
-  </si>
-  <si>
-    <t>우와! 너네 동아리방 시설 좋다! 깔끔하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 막상 근데 우리 학교 동아리방에서 제일 좁고 안 좋은 편인걸?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 사립 명문학교 답다는 생각을 하는 라우였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라? 오운, 너가 저번에 말했던 친구야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 방에 있던 3명의 학생이 있다는 걸 조금 무서워 보이는 학생의 말을 듣고 늦게나마 눈치를 챘다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어어~라우! 인사해! 다 우리 동아리 친구들이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요! 원마을에서 온 라우라고 합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오오…타지인을 볼 기회가 거의 없었는데…반가워요. 저는 리카라고 해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말편하게 해! 난 브린이고 정치외교학과야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 학과도 말해야 되나? 나는 컴공이야. 해킹 쪽으로 전문으로 하고 있어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우와…저도 공대생이지만 해커라니 멋져요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 공대생이구나? 어디?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 기계공이요! 아직 진로는 모르겠지만요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…다들 내가 여기 있으면 왜 여깄냐고 하는데 너는 그런 말을 안하는 구나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아 리카가 비록 수석입학을 했다해도 뭐 너같은 인재가 여기에 왜 있냐라는 말은 하도 해서 말이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 자기가 원하는 동아리 들어가겠다는 데 그걸로 뭐라하는 사람들이 이상한거죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반가워요. 저는 루인이라고 합니다. 저는 사회학과에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 반가워요! 뭔가 다양한 사람들과 만나게 되서 좋네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 좋은 친구들이야! 그래서 소개해주고 싶었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실없는 말은..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이…리카 좋으면서~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운은 빈말하는 친구는 아니니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원래 평소에도 이렇게 자주 동아리 방에 있으신가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨날은 아니어도 매주 만나긴 하는데 그게 딱 오늘이었지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 오운이랑 같이 동아리 홍보 포스터를 붙이고 다니려고 모였어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하필 오늘 바쁜 날에 만나서 아쉽다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝나고 얘기하면 되지 뭐. 워낙 다들 시간 내기 바빠서말이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라고, 가장 바쁘신 분이 말씀하셨네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아요! 끝나고도 더 얘기하면 되니까요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우 미안…애들이 되는 시간이 이날 밖에 없어서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오~말 진짜 이쁘게 한다! 난 라우 맘에 들어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 다들 성격이 완전 다른데 뭔가 왁자지껄하다는 기분을 느꼈다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자자, 일단 사담은 끝나고 해보자고! 오늘 각자 어딜 담당할 지는 알지? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼, 근데 오운 너가 담당한 데가 좀 많던데 괜찮겠어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우랑 같이 가면 되겠네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오…오자마자 부려먹기 위한 계획이셨군여 회장님?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하…항상 이런 식으로 뭔가 도움 받는 기분이네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루인이 너 혼자 하기엔 양이 많다며~ 같이 하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워 라우..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 학교 밖에 있는 게시판에다 홍보 포스터를 붙이러 가자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이 또 뭘 미안해 하고 있어! 이미 난 괜찮다고 했잖아! 학교도 구경할겸!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엥???그런건 아니야…물론 도와주기로는 했지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아 내가 그냥 돕는다고 했어! 학교도 구경하고 좋지 뭐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오…좀 귀찮겠지만 잘 좀 부탁할께.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후딱 끝내고 와서 라우랑 얘기 나누자고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 혼자서 동아리 방에 있는 것보다 낫지! 그치 오운?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그건 그렇지만..괜히 미안한걸…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운, 라우가 괜찮다잖아! 그리고 손님 초대해놓고 혼자 덩그러니 두는 것도 예의가 아닌 것 같다구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아, 어차피 해야할 일인거 빨리 갔다와서 놀자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리는 이제 학교 이곳 저곳에 있는 학교 게시판에다가 홍보 게시물을 붙일 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길을 가다가 보이는 게시판이 보이면 거기다가 붙이면 돼!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 어려울 것도 없네! 금방 후딱 해치워 버리자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 앞에 갔더니 찢어진 포스터가 눈에 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런…누가 또 찢어버렸네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 무슨 일이야? 한두번이 아니야???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응… 누군지 모르겠지만 가끔 이런 식으로 찢어버리는 사람들이 있더라고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런…잡히기만 해봐라 아주 그냥…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 괜찮아.. 새로 붙이면 되지. 얼른 붙이자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 여기도 찢어져 있잖아??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라…그러게…? 이렇게 연속적으로 찢어진 걸 본 적은 없는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누가 일부러 찾아서 찢는게 분명해…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서….설마…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 할 짓없는 애들이 이런 짓을 하는 거지…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판에 다가갔더니 뭔가 껄렁해보이는 학생들이 낄낄 거리고 있었다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 그 옆에는 동아리 포스터가 찢어져 있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206132_choice</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/206132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206132_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/206132_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큭큭 진짜 얘들은 징하지도 않냐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지들은 아주 PC한 척하는 거 꼴도 보기 싫어 죽겠어 진짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그니까~정의로운 척하는거 진짜 헛구역질 난다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누가봐도 오운의 동아리를 욕하는 말들이었다,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이를 본 라우는 이를 꽉 물며 나서려고 하는 순간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(작은 목소리로)그냥 모른 척 하고 지나가자…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무리 봐도 앞으로 계속 이럴 것 같은데… 어쩌지…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운은 저들을 무서워 한다기 보단 괜히 갈등에 휩쓸리고 싶지 않은 것 처럼 보였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 이대로 보고만 있으면 앞으로도 오운 동아리의 노력이 비웃음을 살 것이라는 생각이 들었고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것만은 오운의 친구로서 참지 못할 것 같았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 성큼 성큼 그들에게 다가갔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엥..? 뭐야 원인이 왜 여기 있지, 유학생인가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아뇨, 당신들이 하는 얘기 다 들었어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생들은 라우의 뒤를 힐끔 쳐다보더니 입을 열었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아~귀하신 회장님의 친구시구나~?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>됐고, 당신들 이런 짓하는거 쪽팔린 줄 알아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음에 들든 안 들든 이런 짓하는게 퍽이나 교양 넘치는 짓이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 스스로 인지부조화오니까 그러는 것 같은데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스스로들이 할 짓 없이 이런 식으로 열등감 없애는 짓하는 것로 밖에 안보이거든요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 짓 할 시간에 잠이나 자러 가버리던가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생들은 라우의 말에 어버버 거리는 표정을 짓고 있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저리 비켜요, 당신들이 찢은 포스터에 다시 붙일거니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쳇…지들이 잘난 줄 알지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생들은 꿍얼거리면서 자리를 비켰다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우…대단하다…나라면 절대 못했을거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저런 애들은 스스로 쪽팔린 줄 알아야해. 그냥 나는 내 할 일을 했을 뿐이야. 얼른 포스터 붙이자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(외부인인 내가 괜히 끼어들어봤자 오운에게 피해갈 것 같아…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아…다음에 붙이면 되지…이번엔 그냥 지나가자…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 오운에 말에 수긍하면서 그냥 지나치기로 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생들을 지나치자 그들은 오운을 알아보고 아는 척을 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어~ 오운 회장님~ 여기 종이가 찢어져 있던데??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…다음에 붙일 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에도 찢어져 있을텐데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량 학생들은 키득거리며 오운을 비웃었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저것들이…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아 라우…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 별다른 대응을 하지 못하고 포스터를 교체하지도 못한 채 지나갔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,m3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각자 포스터를 붙이고 오고 나서 신나게 저녁 떄 까지 이야기의 꽃을 피웠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 각자 약속이 있던 리카, 루인, 브린은 먼저 나갔고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇게 라우와 오운 둘이서만 동아리 방에 남았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 많이 힘들었지? 고생많았어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엥? 아냐~ 나야 너네 학교 구경도 하고 또 애들이랑 얘기할 수 있어서 너무 재밌었어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕분이야! 고마워 오운!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇다면 다행이야. 너도 느꼈겠지만 다들 좋은 친구들이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 활동하면서 여러 갈등들이 있을 때 마다 저 친구들이 있었기에 잘 이겨낼 수 있었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엇, 혹시 아까 처럼 그런 경우가 많았던 거야? 또 어떤 갈등이 있었는데..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음… 예전에 성소수자 인권 관련해서 현수막을 달았는데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 매번 누가 현수막을 찢어버리는 거야..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 할 짓도 없나, 왜 그런 짓을 하는거야???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 만약 평소의 나라면 안절부절 했을 텐데, 친구들이 참지 않고 잠복해서 결국 범인을 잡을 수 있었어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 친구들이네 정말. 그리고 계속 너를 깎아 내리지만, 너도 강단 있다고 생각해 난.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에? 내가? 아냐.. 내가 무슨…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐, 애들이 괜히 너를 믿고 따르는게 아니라고 생각해. 보면 은근 할 건 다 하고 다니는 거 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남들의 시선이 어떠하든 간에 결국 너가 하고자 하는 바를 이루려고 하잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 처음에 너가 소심한 것 같았는데 지금은 외유내강인 거 같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아…아냐…내가 뭐라고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 회장님… 와…나타나네… 최고의 회장님, 호!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아잇, 진짜! 놀리지마!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서로 깔깔 거리면서 이야기를 나누다 오운이 진지한 이야기를 꺼내기 시작했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비록 내가 하고 싶어서 한거지만, 가끔 스스로 이게 맞나 싶을 떄가 있기도 해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라?? 왜?? 뭐 떄문에…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운은 잠시 생각에 잠기다 잠시후 이야기를 꺼냈다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가끔 당사자성이 없는 다른 사람의 인권을 챙기려고 할 때, 떄로 당사자들에게 비판 받을 때가 있거든</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 그게 가끔 두렵더라고… 사실 그들 입장에서는 기만이라고 느껴질 수 있을 거라고 생각이 들더라고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 내가 하는 것들이 과연 그들을 돕는 것이 맞을까라는 생각이 들 때가 있어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운의 진지한 생각에 대해서 나는…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완벽하지 못하더라도 가만히 방관하는 것보다 낫다고 생각해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 누군가의 인권을 챙긴다는 것은 좀 허황된 거 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐든 양면의 칼날이 있듯이, 예상치 못한 리스크는 따르는 게 아닐까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특히 인권은 정말 어려운 문제잖아. 그래서 사실 대부분 사람들이 외면하기도 하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 다들 외면하는 와중에 누군가가 바라봐준 다는 것 만으로도 나는 큰 의미가 있다고 생각해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론 그 과정에서 완벽하진 못하더라도, 가장 중요한 것은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 좋은 영향을 끼치기 위해 노력하겠다는 자세니까 말이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러니까 너무 걱정안해도 될 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미 그런 생각을 가지고 스스로 고찰하고 있다는 것 만으로도 큰 의미가 있다고 생각해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만약 그들에게 실수하게 된다면 책임을 지고 고치고 더 나아지면 되는 거니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응….라우 너말이 맞아…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각해보니 나는 이제까지 완벽해야 된다는 강박 관념에 갇혀있던거 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럴 수 있지. 하지만 완벽한 건 사실 불가능하다고 생각해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무래도 당사자가 아닌이상, 완벽하게 그들의 입장을 이해할 수 없잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇기에 더더욱 조심해야 되는 건 맞지. 하지만 완벽하지 못한다는 사실에 스트레스 받을 필요는 없을 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요한 건 너가 어떤 자세로 어떤 영향으로 어떤 변화를 일으키고 싶은지니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕분에 내가 어떤 자세로 인권 운동에 임해야 할지 감을 잡은 것 같아…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스스로 타박하기 보단, 적어도 방관하지 않는 자신에게 잘했다고 말해주는게 좋지 않을까 싶어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응응…이제것 나는 나를 탓하고 자책하기만 했던 것 같아… 그래도 자만하지 않으려고 노력해야겠지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그건 그렇지. 항상 조심해야 되는 거라고 생각해. 그렇지만 자책은 하지 말자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응! 고마워 라우. 널 만난 건 내 인생의 큰 행운인 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭘 그렇게 까지야…하핫! 도움이 되었다면 다행이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 사실 남이 뭐라고 감히 남의 인권을 왈가왈부 할 수 있나 싶어서…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론 너가 고생하고 있는건 알지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 남인 이상, 완벽하게 남의 인권을 챙긴다는 건 말도 안되는 거지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음…애초에…남이 누군가의 인권을 챙긴다는 게 말이 안되지 않나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너말대로 당사자가 보기엔 기만으로 보일 수 있다고 생각해 나도.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도 아예 무관심한 것 보다는 낫지만…완벽하게 모든 인권을 챙기는 건 말이 안된다는 게 내 생각이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러니까 너무 머리 아프게 생각하지마. 그냥 안하는 것보단 낫다고 간단하게 생각해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결국은 그런 건가….어쩔 수 없는 걸까…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(유독 오운의 표정이 이제것 봤던 표정 중에서 가장 슬퍼 보인다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하지만 현실은 현실이다. 현실을 인지할 필요가 있다고 생각하니까.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사람들이 모여있는 곳이 보인다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(어떤 한 사람이 버스킹을 하는 것 처럼 보인다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기 버스킹 하는 것 같은데요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기 버스킹 하는 사람들 종종 보이더라고요??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오!! 재밌겠다! 구경해요!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 기대했던 것과 달리 버스킹하는 남자는 자신감만 넘치고 실력은 영 꽝이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나가던 시민1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야.. 시끄럽게…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(괜히 내가 다 민망하네…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하핫…그래도 멋지다고 생각해요…남들 앞에서 서서 자신을 보인다는 건 저는 못해요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하긴 그렇게 생각하면 대단하면서, 또 그 자신감이 대단하다는 생각이 들기도 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 이 동상 우리 마을에도 있는데!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 맞습니다. 잘 아시네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗…깜짝아.. 안녕하세요….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 이 공원은 세 마을의 화합을 위해 만들어진 공원이에요. 그래서 아마 다른 마을에 있는 공원에도 동상이 있을 겁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 그래서 우리 마을 공원에도 있었구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 진짜요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제 기억 속에는 이 동상이 원마을, 세모마을, 네모마을의 화합을 의미했던 거라고 기억하는데… 맞나..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 사실상 마을간 교류가 거의 없다시피 하잖아요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사실 오운의 말이 맞긴 하다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내가 세모마을로 여행을 간다 했을 때 많은 사람들이 말리긴 했었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(옛날에는 교류가 활발했지만, 각 마을이 가지고 있는 차이가 갈등을 일으켰고 현재는 최소한으로 필요한 것들만 교류한다고 들었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(원마을은 종종 원인이 아닌 사람이 있는데, 듣기론 세모마을에는 없다고 들었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아마…세모마을에 뭔가 있는 것이겠지…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 다른 마을을 한번 가보고 싶은데 기회가 쉽게 나지 않네요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저도 지금 이쪽에 계신 원인을 처음 뵐 정도로 다른 마을 사람들을 볼일이 없긴 했네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이럴 거면 이 동상과 공원을 세운 의미가 뭘까요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑자기 오운의 말에 숙연해졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아…그래도 아예 없는 것보단 조금의 희망이 있지 않을까요..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아요! 그래도 저도 이렇게 세모마을에 여행왔고… 불가능한 건 아니니까요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 말씀입니다. 편히 공원 잘 구경하시고 무슨 일이 있으면 저에게 말씀해주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 감사합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하하, 농담이에요 농담!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206131_1</t>
-  </si>
-  <si>
-    <t>206131_2</t>
-  </si>
-  <si>
-    <t>206132_1</t>
-  </si>
-  <si>
-    <t>206132_2</t>
-  </si>
-  <si>
-    <t>206132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쩔 수 없는 거지 뭐… 조금은 허황된 걸 하고 있는 거일 수도 있고. 누군가의 인권을 챙긴다는 것이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇다고 뭐 너의 노력이 헛되지는 않다고 생각해. 아까도 말했지만 가만히 있는 것보단 나으니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뭔가 어색해진 것 같지만 내 기분 탓이겠지…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇게 둘은 이도 저도 아닌 상태로 이야기가 끝나게 되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 오늘은 오운을 보기로 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskContentType</t>
-  </si>
-  <si>
-    <t>205120_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205110_Oun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어, 쟤 봐봐, 어딘가 낯이 익은데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량한 여학생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어, 쟤 걔잖아. 인권동아리 로아 회장.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량한 남학생1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량한 남학생2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옆에는 우리 마을 사람 아닌데? 원인이네?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큭큭, 혼혈이랑 외지인의 조합이라, 어울리네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 미친ㅋㅋㅋㅋ 그러네? 쟤 혼혈이었지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운과 같은 교복을 입었지만 오운에 대해 굉장히 적대적인 학생들을 만났다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,m1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운씨…저분들 나름 오운씨랑 같은 학교 아니에요…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아…제가 혼혈에 인권동아리 한다는 거가 일부 학생들이 부정적으로 보더라고요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네??? 왜죠???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 여러모로 고까워 보이는 게 아닐까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어이~로아 회장~ 원인 끼고 구경시켜주는 거야? 착하네~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 진짜, 그만해 정말ㅋㅋㅋㅋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 이렇게 무례하죠? 이 사람들을 정말,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참아요 라우씨. 괜히 밖에서 문제일으켜봤자 좋을게 없어요. 자, 빨리 가요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205120_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Citizen_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Student_M</t>
-  </si>
-  <si>
-    <t>NPC_Student_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Student_W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rika</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bryn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rouin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Police</t>
+  </si>
+  <si>
+    <t>205130_3</t>
+  </si>
+  <si>
+    <t>205130_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3604,7 +3674,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3632,7 +3702,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3811,10 +3881,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2357F9-CF45-4710-93E5-5EA59875C928}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3871,51 +3941,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="34">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -3923,13 +3999,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
@@ -3937,13 +4013,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>101</v>
@@ -3951,13 +4027,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
@@ -3965,13 +4041,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>103</v>
@@ -3979,13 +4055,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>104</v>
@@ -3993,13 +4069,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -4007,13 +4083,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -4021,13 +4097,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -4035,13 +4111,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -4049,13 +4125,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -4063,13 +4139,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -4080,7 +4156,7 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -4091,352 +4167,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4448,11 +4188,665 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AE9796-0906-419B-94C4-40AD00453409}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B807CEB-3E37-4A58-A716-C06FB9172CDF}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D026A2-F5F7-4C04-AFAE-2228E10427BD}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4464,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4514,27 +4908,27 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>139</v>
+      <c r="D6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4542,13 +4936,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>140</v>
+      <c r="D7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4556,13 +4950,13 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4570,13 +4964,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4590,7 +4984,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4598,13 +4992,13 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4618,7 +5012,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4626,13 +5020,13 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4646,7 +5040,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4654,13 +5048,13 @@
         <v>40</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4668,13 +5062,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4682,13 +5076,13 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4696,69 +5090,69 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4766,279 +5160,83 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5049,7 +5247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AD8D54-30DB-4585-8738-15F3F2DA6B13}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5066,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5113,7 +5311,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5127,12 +5325,12 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5146,7 +5344,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5160,7 +5358,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5174,7 +5372,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5188,7 +5386,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5202,7 +5400,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5212,7 +5410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD66429-6004-4919-B6AC-235DE9ADB1C1}">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -5229,7 +5427,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5285,7 +5483,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -5299,31 +5497,31 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5337,7 +5535,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5351,49 +5549,49 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5407,21 +5605,21 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5435,63 +5633,63 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5505,7 +5703,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5519,49 +5717,49 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5575,77 +5773,77 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5659,7 +5857,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5673,7 +5871,7 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5687,26 +5885,26 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5720,49 +5918,49 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5776,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5790,21 +5988,21 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5818,7 +6016,7 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5832,21 +6030,21 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5860,21 +6058,21 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5888,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5902,7 +6100,7 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5916,7 +6114,7 @@
         <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5930,7 +6128,7 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5941,7 +6139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86846BE5-D25E-4AD5-9B6E-E312A24E3C73}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5958,7 +6156,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6014,7 +6212,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -6028,7 +6226,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6042,7 +6240,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC68585-12EA-442F-8C36-C2804CBCCE16}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -6067,7 +6265,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6114,7 +6312,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6128,7 +6326,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6142,7 +6340,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6156,7 +6354,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6170,7 +6368,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6184,7 +6382,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6194,7 +6392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC14C57-8CF5-4830-8632-D1EDE8DB4C56}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -6209,7 +6407,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6265,7 +6463,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -6279,7 +6477,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6293,7 +6491,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6307,7 +6505,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6321,7 +6519,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6335,331 +6533,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="D6" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6687,7 +6561,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6880,6 +6754,330 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231A295-96F4-4D6D-AC7C-9F90FD936FF9}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A3CD4-58E9-4725-AAE1-D2A2BD6FC3A7}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="D6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EABC25-604D-40CE-A721-7089A9C50264}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -6896,7 +7094,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6943,22 +7141,22 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51">
       <c r="D6" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6972,21 +7170,21 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7000,26 +7198,26 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7033,7 +7231,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7047,7 +7245,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7061,7 +7259,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7075,7 +7273,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7089,7 +7287,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7103,7 +7301,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7111,10 +7309,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7128,21 +7326,21 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7150,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7167,7 +7365,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7181,7 +7379,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7195,7 +7393,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7206,7 +7404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D673B3C-909F-479B-8E0D-2FE787B82E18}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7223,7 +7421,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7279,7 +7477,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -7293,31 +7491,31 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7331,26 +7529,26 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7364,7 +7562,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7378,12 +7576,12 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7393,7 +7591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90490276-7C50-41B3-9533-DA138D32C992}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -7410,7 +7608,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7457,363 +7655,363 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
       <c r="D6" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
         <v>318</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -7824,7 +8022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7892,7 +8090,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -7915,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7934,36 +8132,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7974,7 +8172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79E37-D0E3-44B1-B84A-E4DC06E2970E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -7991,7 +8189,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8047,7 +8245,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -8061,7 +8259,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8075,7 +8273,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8089,7 +8287,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8103,7 +8301,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8117,7 +8315,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8131,7 +8329,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8145,7 +8343,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8159,7 +8357,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8173,7 +8371,7 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8187,7 +8385,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8201,7 +8399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8215,7 +8413,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8229,7 +8427,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8243,7 +8441,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8257,7 +8455,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8271,7 +8469,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8285,7 +8483,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8299,7 +8497,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8313,7 +8511,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8327,7 +8525,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8337,7 +8535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A270BF-9D3E-43CF-B233-D05241629D62}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -8354,7 +8552,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8410,7 +8608,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8424,7 +8622,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8438,7 +8636,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8452,7 +8650,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8466,7 +8664,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8480,7 +8678,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8494,7 +8692,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8508,7 +8706,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8522,7 +8720,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8536,7 +8734,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8550,7 +8748,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8564,7 +8762,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8578,7 +8776,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8592,7 +8790,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8606,7 +8804,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8620,12 +8818,12 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="D21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -8809,7 +9007,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8823,7 +9021,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8837,7 +9035,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8851,7 +9049,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8865,23 +9063,23 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8895,7 +9093,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8909,7 +9107,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8923,7 +9121,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8950,7 +9148,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8997,77 +9195,77 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
         <v>434</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9081,7 +9279,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9095,7 +9293,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9109,7 +9307,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9123,35 +9321,35 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9165,7 +9363,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9179,7 +9377,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -9206,7 +9404,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9262,7 +9460,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9276,7 +9474,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -9290,18 +9488,18 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9315,18 +9513,18 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" t="s">
         <v>394</v>
-      </c>
-      <c r="C10" t="s">
-        <v>457</v>
-      </c>
-      <c r="D10" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9340,7 +9538,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9354,7 +9552,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9368,7 +9566,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9382,7 +9580,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9396,7 +9594,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9410,7 +9608,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9424,7 +9622,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9438,18 +9636,18 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9463,23 +9661,23 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="D21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9493,18 +9691,18 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9518,7 +9716,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9964,7 +10162,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -9979,7 +10177,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
